--- a/Technology/Software/Synopsys.xlsx
+++ b/Technology/Software/Synopsys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0CC94C-0AFF-2B4D-8E04-1052AD7CD89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F286245-135E-E148-95F8-7C499552ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,6 +1015,14 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,14 +1035,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2485,13 +2485,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>392.79</v>
-    <v>255.02</v>
-    <v>1.1806000000000001</v>
-    <v>-0.3</v>
-    <v>-7.9460000000000002E-4</v>
-    <v>0.04</v>
-    <v>1.06E-4</v>
+    <v>418.4</v>
+    <v>267</v>
+    <v>1.1774</v>
+    <v>-1.21</v>
+    <v>-2.9529999999999999E-3</v>
+    <v>-0.02</v>
+    <v>-4.8959999999999999E-5</v>
     <v>USD</v>
     <v>Synopsys, Inc. provides products and services across the silicon to software spectrum. The Company operates through two segments: Semiconductor &amp; System Design and Software Integrity. The Semiconductor &amp; System Design segment includes its advanced silicon design, verification products and services, and semiconductor intellectual property (IP) portfolio that encompasses products and services that serve companies primarily in the semiconductor and electronics industries. This segment also supplies the electronic design automation (EDA) software that engineers use to design and test integrated circuits (ICs), also known as chips. The Software Integrity segment includes a portfolio of products and services to intelligently address software risks across the customer portfolio and at all stages of the application lifecycle. This segment offers software tools and services that include security and testing products. The Company also provides application security Software-as-a-Service (SaaS).</v>
     <v>19000</v>
@@ -2499,25 +2499,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>690 E Middlefield Rd, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>381.71</v>
+    <v>418.4</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.998314560158</v>
+    <v>45065.905392858593</v>
     <v>0</v>
-    <v>374.62</v>
-    <v>57457330000</v>
+    <v>407.47</v>
+    <v>62215244450</v>
     <v>SYNOPSYS, INC.</v>
     <v>SYNOPSYS, INC.</v>
-    <v>376.82</v>
-    <v>62.411700000000003</v>
-    <v>377.56</v>
-    <v>377.26</v>
-    <v>377.3</v>
+    <v>413.03</v>
+    <v>69.141300000000001</v>
+    <v>409.71</v>
+    <v>408.5</v>
+    <v>408.48</v>
     <v>152301700</v>
     <v>SNPS</v>
     <v>SYNOPSYS, INC. (XNAS:SNPS)</v>
-    <v>558833</v>
-    <v>760894</v>
+    <v>1296671</v>
+    <v>690593</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3105,10 +3105,10 @@
   <dimension ref="A1:AQ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ139" sqref="AJ139"/>
+      <selection pane="bottomRight" activeCell="AG117" sqref="AG117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5068,15 +5068,15 @@
       </c>
       <c r="AO16" s="30">
         <f>AP101/AH3</f>
-        <v>11.307065847335316</v>
+        <v>12.243378968431236</v>
       </c>
       <c r="AP16" s="30">
         <f>AP101/AH28</f>
-        <v>58.35636820862203</v>
+        <v>63.188730024761476</v>
       </c>
       <c r="AQ16" s="31">
         <f>AP101/AH106</f>
-        <v>35.914916571760038</v>
+        <v>38.888951399471686</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -12176,10 +12176,10 @@
       <c r="AH83" s="1">
         <v>1320000</v>
       </c>
-      <c r="AO83" s="58" t="s">
+      <c r="AO83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AP83" s="59"/>
+      <c r="AP83" s="63"/>
     </row>
     <row r="84" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12284,10 +12284,10 @@
       <c r="AH84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AO84" s="60" t="s">
+      <c r="AO84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AP84" s="61"/>
+      <c r="AP84" s="65"/>
     </row>
     <row r="85" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13313,10 +13313,10 @@
       <c r="AH93" s="1">
         <v>-3693000</v>
       </c>
-      <c r="AO93" s="60" t="s">
+      <c r="AO93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AP93" s="61"/>
+      <c r="AP93" s="65"/>
     </row>
     <row r="94" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -13534,9 +13534,9 @@
       <c r="AO95" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="AP95" s="64" cm="1">
+      <c r="AP95" s="58" cm="1">
         <f t="array" ref="AP95">_FV(A1,"Beta")</f>
-        <v>1.1806000000000001</v>
+        <v>1.1774</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="AP97" s="36">
         <f>(AP94)+((AP95)*(AP96-AP94))</f>
-        <v>9.1774830000000002E-2</v>
+        <v>9.1637070000000015E-2</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -13863,10 +13863,10 @@
       <c r="AH98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AO98" s="60" t="s">
+      <c r="AO98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AP98" s="61"/>
+      <c r="AP98" s="65"/>
     </row>
     <row r="99" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14087,7 +14087,7 @@
       </c>
       <c r="AP100" s="34">
         <f>AP99/AP103</f>
-        <v>1.1294599874132952E-2</v>
+        <v>1.0439862174720056E-2</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14198,7 +14198,7 @@
       </c>
       <c r="AP101" s="39" cm="1">
         <f t="array" ref="AP101">_FV(A1,"Market cap",TRUE)</f>
-        <v>57457330000</v>
+        <v>62215244450</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14309,7 +14309,7 @@
       </c>
       <c r="AP102" s="34">
         <f>AP101/AP103</f>
-        <v>0.98870540012586705</v>
+        <v>0.98956013782527996</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="AP103" s="40">
         <f>AP99+AP101</f>
-        <v>58113701000</v>
+        <v>62871615450</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14526,10 +14526,10 @@
       <c r="AH104" s="11">
         <v>1419864000</v>
       </c>
-      <c r="AO104" s="60" t="s">
+      <c r="AO104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AP104" s="61"/>
+      <c r="AP104" s="65"/>
     </row>
     <row r="105" spans="1:42" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -14675,7 +14675,7 @@
       </c>
       <c r="AP105" s="26">
         <f>(AP100*AP92)+(AP102*AP97)</f>
-        <v>9.0763898124879269E-2</v>
+        <v>9.0704080277478491E-2</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14853,7 +14853,7 @@
       <c r="AL107" s="42"/>
       <c r="AM107" s="45">
         <f>AM106*(1+AP107)/(AP108-AP107)</f>
-        <v>45288216679.475212</v>
+        <v>45329447659.696617</v>
       </c>
       <c r="AN107" s="46" t="s">
         <v>148</v>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="AM108" s="45">
         <f>AM107+AM106</f>
-        <v>48193904160.418106</v>
+        <v>48235135140.639511</v>
       </c>
       <c r="AN108" s="46" t="s">
         <v>144</v>
@@ -14894,14 +14894,14 @@
       </c>
       <c r="AP108" s="50">
         <f>AP105</f>
-        <v>9.0763898124879269E-2</v>
+        <v>9.0704080277478491E-2</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="AI109" s="62" t="s">
+      <c r="AI109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AJ109" s="63"/>
+      <c r="AJ109" s="61"/>
     </row>
     <row r="110" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="AI110" s="51" t="s">
@@ -14909,7 +14909,7 @@
       </c>
       <c r="AJ110" s="39">
         <f>NPV(AP108,AI108,AJ108,AK108,AL108,AM108)</f>
-        <v>38158312438.507912</v>
+        <v>38194551230.330673</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14936,7 +14936,7 @@
       </c>
       <c r="AJ113" s="39">
         <f>AJ110+AJ111-AJ112</f>
-        <v>39067462438.507912</v>
+        <v>39103701230.330673</v>
       </c>
     </row>
     <row r="114" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14954,16 +14954,16 @@
       </c>
       <c r="AJ115" s="54">
         <f>AJ113/AJ114</f>
-        <v>247.05594796424921</v>
+        <v>247.28511588322894</v>
       </c>
     </row>
     <row r="116" spans="35:36" ht="20" x14ac:dyDescent="0.25">
       <c r="AI116" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="AJ116" s="65" cm="1">
+      <c r="AJ116" s="59" cm="1">
         <f t="array" ref="AJ116">_FV(A1,"Price")</f>
-        <v>377.26</v>
+        <v>408.5</v>
       </c>
     </row>
     <row r="117" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="AJ117" s="56">
         <f>AJ115/AJ116-1</f>
-        <v>-0.34513081703798654</v>
+        <v>-0.39465087911082264</v>
       </c>
     </row>
     <row r="118" spans="35:36" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Synopsys.xlsx
+++ b/Technology/Software/Synopsys.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F286245-135E-E148-95F8-7C499552ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBA7ABA-111D-4A45-BCF9-C804735A956F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2485,13 +2485,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>418.4</v>
+    <v>450</v>
     <v>267</v>
-    <v>1.1774</v>
-    <v>-1.21</v>
-    <v>-2.9529999999999999E-3</v>
-    <v>-0.02</v>
-    <v>-4.8959999999999999E-5</v>
+    <v>1.1664000000000001</v>
+    <v>10.53</v>
+    <v>2.4251000000000002E-2</v>
+    <v>3.25</v>
+    <v>7.3080000000000003E-3</v>
     <v>USD</v>
     <v>Synopsys, Inc. provides products and services across the silicon to software spectrum. The Company operates through two segments: Semiconductor &amp; System Design and Software Integrity. The Semiconductor &amp; System Design segment includes its advanced silicon design, verification products and services, and semiconductor intellectual property (IP) portfolio that encompasses products and services that serve companies primarily in the semiconductor and electronics industries. This segment also supplies the electronic design automation (EDA) software that engineers use to design and test integrated circuits (ICs), also known as chips. The Software Integrity segment includes a portfolio of products and services to intelligently address software risks across the customer portfolio and at all stages of the application lifecycle. This segment offers software tools and services that include security and testing products. The Company also provides application security Software-as-a-Service (SaaS).</v>
     <v>19000</v>
@@ -2499,25 +2499,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>690 E Middlefield Rd, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>418.4</v>
+    <v>450</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.905392858593</v>
+    <v>45072.948664166404</v>
     <v>0</v>
-    <v>407.47</v>
-    <v>62215244450</v>
+    <v>434.3</v>
+    <v>67669938908</v>
     <v>SYNOPSYS, INC.</v>
     <v>SYNOPSYS, INC.</v>
-    <v>413.03</v>
-    <v>69.141300000000001</v>
-    <v>409.71</v>
-    <v>408.5</v>
-    <v>408.48</v>
-    <v>152301700</v>
+    <v>434.3</v>
+    <v>73.274199999999993</v>
+    <v>434.2</v>
+    <v>444.73</v>
+    <v>447.98</v>
+    <v>152159600</v>
     <v>SNPS</v>
     <v>SYNOPSYS, INC. (XNAS:SNPS)</v>
-    <v>1296671</v>
-    <v>690593</v>
+    <v>1903553</v>
+    <v>859274</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3105,10 +3105,10 @@
   <dimension ref="A1:AQ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG117" sqref="AG117"/>
+      <selection pane="bottomRight" activeCell="AI23" sqref="AI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5068,15 +5068,15 @@
       </c>
       <c r="AO16" s="30">
         <f>AP101/AH3</f>
-        <v>12.243378968431236</v>
+        <v>13.316811886628114</v>
       </c>
       <c r="AP16" s="30">
         <f>AP101/AH28</f>
-        <v>63.188730024761476</v>
+        <v>68.728774406506645</v>
       </c>
       <c r="AQ16" s="31">
         <f>AP101/AH106</f>
-        <v>38.888951399471686</v>
+        <v>42.298523274522474</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13536,7 +13536,7 @@
       </c>
       <c r="AP95" s="58" cm="1">
         <f t="array" ref="AP95">_FV(A1,"Beta")</f>
-        <v>1.1774</v>
+        <v>1.1664000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="AP97" s="36">
         <f>(AP94)+((AP95)*(AP96-AP94))</f>
-        <v>9.1637070000000015E-2</v>
+        <v>9.1163520000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14087,7 +14087,7 @@
       </c>
       <c r="AP100" s="34">
         <f>AP99/AP103</f>
-        <v>1.0439862174720056E-2</v>
+        <v>9.6064166334138383E-3</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14198,7 +14198,7 @@
       </c>
       <c r="AP101" s="39" cm="1">
         <f t="array" ref="AP101">_FV(A1,"Market cap",TRUE)</f>
-        <v>62215244450</v>
+        <v>67669938908</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14309,7 +14309,7 @@
       </c>
       <c r="AP102" s="34">
         <f>AP101/AP103</f>
-        <v>0.98956013782527996</v>
+        <v>0.99039358336658612</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="AP103" s="40">
         <f>AP99+AP101</f>
-        <v>62871615450</v>
+        <v>68326309908</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14675,7 +14675,7 @@
       </c>
       <c r="AP105" s="26">
         <f>(AP100*AP92)+(AP102*AP97)</f>
-        <v>9.0704080277478491E-2</v>
+        <v>9.0309562766765994E-2</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14853,7 +14853,7 @@
       <c r="AL107" s="42"/>
       <c r="AM107" s="45">
         <f>AM106*(1+AP107)/(AP108-AP107)</f>
-        <v>45329447659.696617</v>
+        <v>45603270666.543869</v>
       </c>
       <c r="AN107" s="46" t="s">
         <v>148</v>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="AM108" s="45">
         <f>AM107+AM106</f>
-        <v>48235135140.639511</v>
+        <v>48508958147.486763</v>
       </c>
       <c r="AN108" s="46" t="s">
         <v>144</v>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="AP108" s="50">
         <f>AP105</f>
-        <v>9.0704080277478491E-2</v>
+        <v>9.0309562766765994E-2</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14909,7 +14909,7 @@
       </c>
       <c r="AJ110" s="39">
         <f>NPV(AP108,AI108,AJ108,AK108,AL108,AM108)</f>
-        <v>38194551230.330673</v>
+        <v>38435228495.384735</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14936,7 +14936,7 @@
       </c>
       <c r="AJ113" s="39">
         <f>AJ110+AJ111-AJ112</f>
-        <v>39103701230.330673</v>
+        <v>39344378495.384735</v>
       </c>
     </row>
     <row r="114" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="AJ115" s="54">
         <f>AJ113/AJ114</f>
-        <v>247.28511588322894</v>
+        <v>248.80711772721779</v>
       </c>
     </row>
     <row r="116" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="AJ116" s="59" cm="1">
         <f t="array" ref="AJ116">_FV(A1,"Price")</f>
-        <v>408.5</v>
+        <v>444.73</v>
       </c>
     </row>
     <row r="117" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="AJ117" s="56">
         <f>AJ115/AJ116-1</f>
-        <v>-0.39465087911082264</v>
+        <v>-0.44054343595615819</v>
       </c>
     </row>
     <row r="118" spans="35:36" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Synopsys.xlsx
+++ b/Technology/Software/Synopsys.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBA7ABA-111D-4A45-BCF9-C804735A956F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C9BEA-CC2B-C542-9E00-E79E6894F409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2485,39 +2485,37 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>450</v>
+    <v>468.03</v>
     <v>267</v>
-    <v>1.1664000000000001</v>
-    <v>10.53</v>
-    <v>2.4251000000000002E-2</v>
-    <v>3.25</v>
-    <v>7.3080000000000003E-3</v>
+    <v>1.1374</v>
+    <v>-0.21</v>
+    <v>-4.9259999999999994E-4</v>
     <v>USD</v>
-    <v>Synopsys, Inc. provides products and services across the silicon to software spectrum. The Company operates through two segments: Semiconductor &amp; System Design and Software Integrity. The Semiconductor &amp; System Design segment includes its advanced silicon design, verification products and services, and semiconductor intellectual property (IP) portfolio that encompasses products and services that serve companies primarily in the semiconductor and electronics industries. This segment also supplies the electronic design automation (EDA) software that engineers use to design and test integrated circuits (ICs), also known as chips. The Software Integrity segment includes a portfolio of products and services to intelligently address software risks across the customer portfolio and at all stages of the application lifecycle. This segment offers software tools and services that include security and testing products. The Company also provides application security Software-as-a-Service (SaaS).</v>
+    <v>Synopsys, Inc. offers electronic design automation (EDA) software that it uses to design and test integrated circuits (ICs). The Company provides software and hardware used to validate the electronic systems that incorporate chips and the software that runs on them. It provides technical services and support to help its customers develop advanced chips and electronic systems. These products and services are part of its Design Automation segment. It offers semiconductor intellectual property (IP) products, which are pre-designed circuits that engineers use as components of larger chip designs rather than designing those circuits themselves. These products and services are part of its Design IP segment. It is a provider of software tools and services that improve the security, quality and compliance of software in various industries, such as electronics, financial services, automotive, medicine, energy and industrials. These tools and services are part of its Software Integrity segment.</v>
     <v>19000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>690 E Middlefield Rd, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>450</v>
+    <v>675 Almanor Ave, SUNNYVALE, CA, 94085 US</v>
+    <v>427.85</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.948664166404</v>
+    <v>45099.991147892972</v>
     <v>0</v>
-    <v>434.3</v>
-    <v>67669938908</v>
+    <v>417.81</v>
+    <v>64839770348</v>
     <v>SYNOPSYS, INC.</v>
     <v>SYNOPSYS, INC.</v>
-    <v>434.3</v>
-    <v>73.274199999999993</v>
-    <v>434.2</v>
-    <v>444.73</v>
-    <v>447.98</v>
+    <v>423.78</v>
+    <v>71.912300000000002</v>
+    <v>426.34</v>
+    <v>426.13</v>
+    <v>424.87</v>
     <v>152159600</v>
     <v>SNPS</v>
     <v>SYNOPSYS, INC. (XNAS:SNPS)</v>
-    <v>1903553</v>
-    <v>859274</v>
+    <v>9</v>
+    <v>1309710</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2549,8 +2547,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2588,7 +2584,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2606,9 +2602,7 @@
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2675,8 +2669,6 @@
       <v>9</v>
       <v>4</v>
       <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
       <v>at close</v>
@@ -2685,8 +2677,6 @@
       <v>Source: Nasdaq</v>
       <v>GMT</v>
       <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2732,8 +2722,6 @@
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
     <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2742,8 +2730,6 @@
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
     <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3105,10 +3091,10 @@
   <dimension ref="A1:AQ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI23" sqref="AI23"/>
+      <selection pane="bottomRight" activeCell="AI127" sqref="AI127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5068,15 +5054,15 @@
       </c>
       <c r="AO16" s="30">
         <f>AP101/AH3</f>
-        <v>13.316811886628114</v>
+        <v>12.759861150020997</v>
       </c>
       <c r="AP16" s="30">
         <f>AP101/AH28</f>
-        <v>68.728774406506645</v>
+        <v>65.854322033244159</v>
       </c>
       <c r="AQ16" s="31">
         <f>AP101/AH106</f>
-        <v>42.298523274522474</v>
+        <v>40.529466694336477</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13536,7 +13522,7 @@
       </c>
       <c r="AP95" s="58" cm="1">
         <f t="array" ref="AP95">_FV(A1,"Beta")</f>
-        <v>1.1664000000000001</v>
+        <v>1.1374</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13757,7 +13743,7 @@
       </c>
       <c r="AP97" s="36">
         <f>(AP94)+((AP95)*(AP96-AP94))</f>
-        <v>9.1163520000000012E-2</v>
+        <v>8.9915070000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14087,7 +14073,7 @@
       </c>
       <c r="AP100" s="34">
         <f>AP99/AP103</f>
-        <v>9.6064166334138383E-3</v>
+        <v>1.0021521672742681E-2</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14198,7 +14184,7 @@
       </c>
       <c r="AP101" s="39" cm="1">
         <f t="array" ref="AP101">_FV(A1,"Market cap",TRUE)</f>
-        <v>67669938908</v>
+        <v>64839770348</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14309,7 +14295,7 @@
       </c>
       <c r="AP102" s="34">
         <f>AP101/AP103</f>
-        <v>0.99039358336658612</v>
+        <v>0.98997847832725727</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14420,7 +14406,7 @@
       </c>
       <c r="AP103" s="40">
         <f>AP99+AP101</f>
-        <v>68326309908</v>
+        <v>65496141348</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14675,7 +14661,7 @@
       </c>
       <c r="AP105" s="26">
         <f>(AP100*AP92)+(AP102*AP97)</f>
-        <v>9.0309562766765994E-2</v>
+        <v>8.903672359657587E-2</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14853,7 +14839,7 @@
       <c r="AL107" s="42"/>
       <c r="AM107" s="45">
         <f>AM106*(1+AP107)/(AP108-AP107)</f>
-        <v>45603270666.543869</v>
+        <v>46509713500.172287</v>
       </c>
       <c r="AN107" s="46" t="s">
         <v>148</v>
@@ -14884,7 +14870,7 @@
       </c>
       <c r="AM108" s="45">
         <f>AM107+AM106</f>
-        <v>48508958147.486763</v>
+        <v>49415400981.115181</v>
       </c>
       <c r="AN108" s="46" t="s">
         <v>144</v>
@@ -14894,7 +14880,7 @@
       </c>
       <c r="AP108" s="50">
         <f>AP105</f>
-        <v>9.0309562766765994E-2</v>
+        <v>8.903672359657587E-2</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14909,7 +14895,7 @@
       </c>
       <c r="AJ110" s="39">
         <f>NPV(AP108,AI108,AJ108,AK108,AL108,AM108)</f>
-        <v>38435228495.384735</v>
+        <v>39232049399.711777</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14936,7 +14922,7 @@
       </c>
       <c r="AJ113" s="39">
         <f>AJ110+AJ111-AJ112</f>
-        <v>39344378495.384735</v>
+        <v>40141199399.711777</v>
       </c>
     </row>
     <row r="114" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14954,7 +14940,7 @@
       </c>
       <c r="AJ115" s="54">
         <f>AJ113/AJ114</f>
-        <v>248.80711772721779</v>
+        <v>253.84607678902285</v>
       </c>
     </row>
     <row r="116" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14963,7 +14949,7 @@
       </c>
       <c r="AJ116" s="59" cm="1">
         <f t="array" ref="AJ116">_FV(A1,"Price")</f>
-        <v>444.73</v>
+        <v>426.13</v>
       </c>
     </row>
     <row r="117" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14972,7 +14958,7 @@
       </c>
       <c r="AJ117" s="56">
         <f>AJ115/AJ116-1</f>
-        <v>-0.44054343595615819</v>
+        <v>-0.40429897733315456</v>
       </c>
     </row>
     <row r="118" spans="35:36" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Synopsys.xlsx
+++ b/Technology/Software/Synopsys.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C9BEA-CC2B-C542-9E00-E79E6894F409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC4AE0A-3266-BB40-B7CE-595DC80AE39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +544,49 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,101 +922,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,7 +1065,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>SNPS</a:t>
+              <a:t>Synopsys</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1124,10 +1104,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.3303482587064673E-2"/>
-          <c:y val="0.12119247540277502"/>
-          <c:w val="0.87424212271973478"/>
-          <c:h val="0.71686471889231429"/>
+          <c:x val="9.37615894039735E-2"/>
+          <c:y val="0.17692255302120621"/>
+          <c:w val="0.84663576158940412"/>
+          <c:h val="0.62973426588446013"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1181,6 +1161,114 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AH$3</c:f>
@@ -1291,7 +1379,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6C2B-BF47-BB2B-E4DF1E856097}"/>
+              <c16:uniqueId val="{00000000-951A-F44D-9B13-48143FDC4587}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1300,11 +1388,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1342,117 +1430,225 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AH$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AH$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>7000000</c:v>
+                  <c:v>4000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9200000</c:v>
+                  <c:v>3500000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16300000</c:v>
+                  <c:v>7100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28600000</c:v>
+                  <c:v>13200000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37200000</c:v>
+                  <c:v>15800000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63200000</c:v>
+                  <c:v>30300000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54600000</c:v>
+                  <c:v>23700000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>143800000</c:v>
+                  <c:v>72400000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>191700000</c:v>
+                  <c:v>91700000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>303400000</c:v>
+                  <c:v>161400000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>209708000</c:v>
+                  <c:v>97778000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>148695000</c:v>
+                  <c:v>56802000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-172840000</c:v>
+                  <c:v>-199993000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>403099000</c:v>
+                  <c:v>149724000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>284366000</c:v>
+                  <c:v>74337000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>167268000</c:v>
+                  <c:v>-15478000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>158209000</c:v>
+                  <c:v>24742000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>271166000</c:v>
+                  <c:v>130491000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>316099000</c:v>
+                  <c:v>189978000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>334523000</c:v>
+                  <c:v>167681000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>299859000</c:v>
+                  <c:v>237063000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>347663000</c:v>
+                  <c:v>221364000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>359966000</c:v>
+                  <c:v>182402000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>464766000</c:v>
+                  <c:v>247800000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>466863000</c:v>
+                  <c:v>259124000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>496245000</c:v>
+                  <c:v>225934000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>540351000</c:v>
+                  <c:v>266826000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>579843000</c:v>
+                  <c:v>136563000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>588357000</c:v>
+                  <c:v>432518000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>758841000</c:v>
+                  <c:v>532367000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>854185000</c:v>
+                  <c:v>664347000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1013712000</c:v>
+                  <c:v>757516000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1351775000</c:v>
+                  <c:v>984594000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6C2B-BF47-BB2B-E4DF1E856097}"/>
+              <c16:uniqueId val="{00000001-951A-F44D-9B13-48143FDC4587}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1461,11 +1657,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1503,9 +1699,117 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AH$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AH$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AH$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1613,7 +1917,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6C2B-BF47-BB2B-E4DF1E856097}"/>
+              <c16:uniqueId val="{00000002-951A-F44D-9B13-48143FDC4587}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1627,11 +1931,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1876241071"/>
-        <c:axId val="1876242799"/>
+        <c:axId val="680277471"/>
+        <c:axId val="661708815"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1876241071"/>
+        <c:axId val="680277471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876242799"/>
+        <c:crossAx val="661708815"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1679,7 +1983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1876242799"/>
+        <c:axId val="661708815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1728,7 +2032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876241071"/>
+        <c:crossAx val="680277471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1742,16 +2046,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34797048876353143"/>
-          <c:y val="0.91764350599383437"/>
-          <c:w val="0.30405891800838331"/>
-          <c:h val="5.039583020776367E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2329,22 +2623,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C30EB2D-0360-7AF9-FC59-B32402228E55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE3DE47-A43A-4D98-DEA6-39639AC74BCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,6 +2657,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3091,10 +3439,10 @@
   <dimension ref="A1:AQ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI127" sqref="AI127"/>
+      <selection pane="bottomRight" activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3207,19 +3555,19 @@
       <c r="AH1" s="8">
         <v>2022</v>
       </c>
-      <c r="AI1" s="27">
+      <c r="AI1" s="23">
         <v>2023</v>
       </c>
-      <c r="AJ1" s="27">
+      <c r="AJ1" s="23">
         <v>2024</v>
       </c>
-      <c r="AK1" s="27">
+      <c r="AK1" s="23">
         <v>2025</v>
       </c>
-      <c r="AL1" s="27">
+      <c r="AL1" s="23">
         <v>2026</v>
       </c>
-      <c r="AM1" s="27">
+      <c r="AM1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3228,112 +3576,112 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
@@ -3441,186 +3789,186 @@
       <c r="AH3" s="1">
         <v>5081542000</v>
       </c>
-      <c r="AI3" s="28">
-        <v>5800000000</v>
-      </c>
-      <c r="AJ3" s="28">
-        <v>6506000000</v>
-      </c>
-      <c r="AK3" s="28">
-        <v>7349000000</v>
-      </c>
-      <c r="AL3" s="28">
-        <v>8277000000</v>
-      </c>
-      <c r="AM3" s="28">
-        <v>9228000000</v>
+      <c r="AI3" s="24">
+        <v>5810000000</v>
+      </c>
+      <c r="AJ3" s="24">
+        <v>6532000000</v>
+      </c>
+      <c r="AK3" s="24">
+        <v>7375000000</v>
+      </c>
+      <c r="AL3" s="24">
+        <v>8387000000</v>
+      </c>
+      <c r="AM3" s="24">
+        <v>9365000000</v>
       </c>
       <c r="AN3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AO3" s="19" t="s">
+      <c r="AQ3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AP3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="68">
         <f>(C3/B3)-1</f>
         <v>0.83257918552036192</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="68">
         <f>(D3/C3)-1</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="68">
         <f>(E3/D3)-1</f>
         <v>0.71428571428571419</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="68">
         <f t="shared" ref="F4:AM4" si="0">(F3/E3)-1</f>
         <v>0.81481481481481488</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="68">
         <f t="shared" si="0"/>
         <v>0.35459183673469385</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="68">
         <f t="shared" si="0"/>
         <v>0.33145009416195848</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="68">
         <f t="shared" si="0"/>
         <v>0.4118811881188118</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="68">
         <f t="shared" si="0"/>
         <v>0.43838910038068524</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="68">
         <f t="shared" si="0"/>
         <v>0.12285833681571257</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="68">
         <f t="shared" si="0"/>
         <v>-2.7691353430095544E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="68">
         <f t="shared" si="0"/>
         <v>-0.13196083584892659</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="68">
         <f t="shared" si="0"/>
         <v>0.3324524141985743</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="68">
         <f t="shared" si="0"/>
         <v>0.29833299137153158</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="68">
         <f t="shared" si="0"/>
         <v>-7.2115739989447647E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="68">
         <f t="shared" si="0"/>
         <v>-9.1724780790107929E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="68">
         <f t="shared" si="0"/>
         <v>0.10447198444246619</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="68">
         <f t="shared" si="0"/>
         <v>0.10671163605827161</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="68">
         <f t="shared" si="0"/>
         <v>0.10266819192903087</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="68">
         <f t="shared" si="0"/>
         <v>1.727363231711565E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="68">
         <f t="shared" si="0"/>
         <v>1.5158321967287947E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="68">
         <f t="shared" si="0"/>
         <v>0.11225203000591755</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="68">
         <f t="shared" si="0"/>
         <v>0.1435060101859611</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="68">
         <f t="shared" si="0"/>
         <v>0.11742312289687407</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="68">
         <f t="shared" si="0"/>
         <v>4.8546183036101143E-2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="68">
         <f t="shared" si="0"/>
         <v>8.9789314265273035E-2</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="68">
         <f t="shared" si="0"/>
         <v>8.0421066527637253E-2</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="68">
         <f t="shared" si="0"/>
         <v>0.12480660730178172</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="68">
         <f t="shared" si="0"/>
         <v>0.14539282463814929</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="68">
         <f t="shared" si="0"/>
         <v>7.6780373834770099E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="68">
         <f t="shared" si="0"/>
         <v>9.6583324753756195E-2</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="68">
         <f t="shared" si="0"/>
         <v>0.14080663048489384</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="68">
         <f t="shared" si="0"/>
         <v>0.20868428257218441</v>
       </c>
       <c r="AI4" s="16">
         <f t="shared" si="0"/>
-        <v>0.14138582343705908</v>
+        <v>0.14335373002919183</v>
       </c>
       <c r="AJ4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12172413793103454</v>
+        <v>0.12426850258175559</v>
       </c>
       <c r="AK4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12957270212111904</v>
+        <v>0.12905695039804033</v>
       </c>
       <c r="AL4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12627568376649889</v>
+        <v>0.13722033898305086</v>
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11489670170351585</v>
+        <v>0.11660903779659004</v>
       </c>
       <c r="AN4" s="17">
         <f>(AH4+AG4+AF4)/3</f>
@@ -3635,7 +3983,7 @@
         <v>0.22930658692320841</v>
       </c>
       <c r="AQ4" s="17">
-        <f>(AH105+AG105+AF105)/3</f>
+        <f>(AH106+AG106+AF106)/3</f>
         <v>0.40501539553118077</v>
       </c>
     </row>
@@ -3847,16 +4195,16 @@
         <v>4017845000</v>
       </c>
       <c r="AN6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AO6" s="19" t="s">
+      <c r="AQ6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AP6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -3975,7 +4323,7 @@
         <v>0.1938</v>
       </c>
       <c r="AQ7" s="20">
-        <f>AH106/AH3</f>
+        <f>AH107/AH3</f>
         <v>0.31482923884128083</v>
       </c>
     </row>
@@ -3984,19 +4332,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1">
         <v>58700000</v>
@@ -4085,7 +4433,7 @@
     </row>
     <row r="9" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4220,16 +4568,16 @@
         <v>0.3306828911381624</v>
       </c>
       <c r="AN9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AO9" s="19" t="s">
+      <c r="AP9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AP9" s="19" t="s">
+      <c r="AQ9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AQ9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -4237,22 +4585,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1">
         <v>161800000</v>
@@ -4264,7 +4612,7 @@
         <v>292600000</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1">
         <v>348010000</v>
@@ -4357,61 +4705,61 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1">
         <v>324124000</v>
@@ -4560,21 +4908,21 @@
         <v>1133617000</v>
       </c>
       <c r="AN12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AO12" s="19" t="s">
+      <c r="AQ12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AP12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4933,16 +5281,16 @@
         <v>2843750000</v>
       </c>
       <c r="AN15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AO15" s="19" t="s">
+      <c r="AQ15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AP15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -5048,92 +5396,92 @@
       <c r="AH16" s="1">
         <v>3907447000</v>
       </c>
-      <c r="AN16" s="29">
+      <c r="AN16" s="25">
         <f>(AH35+AG35+AF35+AE35+AD35)/5</f>
         <v>2.1050524172133381E-3</v>
       </c>
-      <c r="AO16" s="30">
+      <c r="AO16" s="56">
         <f>AP101/AH3</f>
         <v>12.759861150020997</v>
       </c>
-      <c r="AP16" s="30">
+      <c r="AP16" s="56">
         <f>AP101/AH28</f>
         <v>65.854322033244159</v>
       </c>
-      <c r="AQ16" s="31">
-        <f>AP101/AH106</f>
+      <c r="AQ16" s="57">
+        <f>AP101/AH107</f>
         <v>40.529466694336477</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1">
         <v>1991000</v>
@@ -5169,7 +5517,7 @@
         <v>1698000</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5273,10 +5621,19 @@
         <v>228405000</v>
       </c>
       <c r="AN18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AO18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ18" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5379,14 +5736,41 @@
       <c r="AH19" s="10">
         <v>1351775000</v>
       </c>
-      <c r="AN19" s="32">
+      <c r="AI19" s="60">
+        <v>2139000000</v>
+      </c>
+      <c r="AJ19" s="60">
+        <v>2456000000</v>
+      </c>
+      <c r="AK19" s="60">
+        <v>2851000000</v>
+      </c>
+      <c r="AL19" s="60">
+        <v>3452000000</v>
+      </c>
+      <c r="AM19" s="60">
+        <v>4089000000</v>
+      </c>
+      <c r="AN19" s="26">
         <f>AH40-AH56-AH61</f>
         <v>909150000</v>
       </c>
+      <c r="AO19" s="56">
+        <f>AP101/AI3</f>
+        <v>11.160029319793459</v>
+      </c>
+      <c r="AP19" s="56">
+        <f>AP101/AI28</f>
+        <v>38.503426572446557</v>
+      </c>
+      <c r="AQ19" s="57">
+        <f>AP101/AI105</f>
+        <v>49.022093752336687</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5402,7 +5786,7 @@
         <v>0.75460122699386512</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AH20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AM20" si="3">(F19/E19)-1</f>
         <v>0.30069930069930062</v>
       </c>
       <c r="G20" s="15">
@@ -5517,8 +5901,28 @@
         <f t="shared" si="3"/>
         <v>0.33349018261596974</v>
       </c>
+      <c r="AI20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.58236392890828714</v>
+      </c>
+      <c r="AJ20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.14820009350163632</v>
+      </c>
+      <c r="AK20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.16083061889250816</v>
+      </c>
+      <c r="AL20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.21080322693791653</v>
+      </c>
+      <c r="AM20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.18453070683661643</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5621,8 +6025,34 @@
       <c r="AH21" s="2">
         <v>0.26600000000000001</v>
       </c>
+      <c r="AI21" s="61">
+        <f>AI19/AI3</f>
+        <v>0.36815834767641997</v>
+      </c>
+      <c r="AJ21" s="61">
+        <f t="shared" ref="AJ21:AM21" si="4">AJ19/AJ3</f>
+        <v>0.37599510104102879</v>
+      </c>
+      <c r="AK21" s="61">
+        <f t="shared" si="4"/>
+        <v>0.38657627118644067</v>
+      </c>
+      <c r="AL21" s="61">
+        <f t="shared" si="4"/>
+        <v>0.4115893644926672</v>
+      </c>
+      <c r="AM21" s="61">
+        <f t="shared" si="4"/>
+        <v>0.43662573411639083</v>
+      </c>
+      <c r="AP21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ21" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5725,8 +6155,16 @@
       <c r="AH22" s="10">
         <v>1162038000</v>
       </c>
+      <c r="AP22" s="58">
+        <f>AH98/AP101</f>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="59">
+        <f>AH107/AP101</f>
+        <v>2.4673406327839452E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5830,7 +6268,7 @@
         <v>0.22869999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5934,7 +6372,7 @@
         <v>-46524000</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6038,7 +6476,7 @@
         <v>1115514000</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6142,7 +6580,7 @@
         <v>0.2195</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6246,7 +6684,7 @@
         <v>137078000</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6349,10 +6787,25 @@
       <c r="AH28" s="11">
         <v>984594000</v>
       </c>
+      <c r="AI28" s="62">
+        <v>1684000000</v>
+      </c>
+      <c r="AJ28" s="62">
+        <v>1933000000</v>
+      </c>
+      <c r="AK28" s="62">
+        <v>2242000000</v>
+      </c>
+      <c r="AL28" s="62">
+        <v>2419000000</v>
+      </c>
+      <c r="AM28" s="62">
+        <v>2781000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:40" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6368,123 +6821,143 @@
         <v>0.85915492957746475</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AH29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AM29" si="5">(F28/E28)-1</f>
         <v>0.19696969696969702</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91772151898734178</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.21782178217821779</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0548523206751055</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26657458563535918</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.76008724100327152</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.3941883519206939</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.41907177483687541</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.5208795464948413</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.7486462026170915</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.50350645187144338</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.2082139446036293</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.5985269414653054</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2740683857408452</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4558705198059636</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.11736622135194597</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.41377377281862593</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.6222902772680725E-2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.17600874577618764</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35853773533184952</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5698143664245405E-2</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.12808539540914776</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18099090884948699</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.4881945537541319</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1671682666608088</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23085513204074748</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24791168498423088</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14024147019554545</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.29976660558984891</v>
       </c>
+      <c r="AI29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.71034964665638833</v>
+      </c>
+      <c r="AJ29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.14786223277909749</v>
+      </c>
+      <c r="AK29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.15985514743921359</v>
+      </c>
+      <c r="AL29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.8947368421052655E-2</v>
+      </c>
+      <c r="AM29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.14964861513021921</v>
+      </c>
     </row>
-    <row r="30" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6587,8 +7060,28 @@
       <c r="AH30" s="2">
         <v>0.1938</v>
       </c>
+      <c r="AI30" s="63">
+        <f>AI28/AI3</f>
+        <v>0.28984509466437175</v>
+      </c>
+      <c r="AJ30" s="63">
+        <f t="shared" ref="AJ30:AM30" si="6">AJ28/AJ3</f>
+        <v>0.29592774035517455</v>
+      </c>
+      <c r="AK30" s="63">
+        <f t="shared" si="6"/>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="AL30" s="63">
+        <f t="shared" si="6"/>
+        <v>0.28842255872183142</v>
+      </c>
+      <c r="AM30" s="63">
+        <f t="shared" si="6"/>
+        <v>0.29695675387079551</v>
+      </c>
     </row>
-    <row r="31" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6691,8 +7184,23 @@
       <c r="AH31" s="12">
         <v>6.39</v>
       </c>
+      <c r="AI31" s="64">
+        <v>11.07</v>
+      </c>
+      <c r="AJ31" s="64">
+        <v>12.7</v>
+      </c>
+      <c r="AK31" s="64">
+        <v>14.73</v>
+      </c>
+      <c r="AL31" s="64">
+        <v>15.9</v>
+      </c>
+      <c r="AM31" s="64">
+        <v>18.28</v>
+      </c>
     </row>
-    <row r="32" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7006,7 +7514,7 @@
     </row>
     <row r="35" spans="1:34" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7014,127 +7522,127 @@
         <v>0.12500001125000013</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AH35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AH35" si="7">(D34-C34)/C34</f>
         <v>0.18333334000000001</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.2374241902116948E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17992424504562671</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.27668538752051514</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.11991199471947195</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.40329411761317646</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.17028068881400679</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.2997500986452718E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.3014627768243848E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-8.9284205188878557E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.3235899101439863E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18493294216261524</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0516276543334639E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.3886531117375355E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.6693108919086709E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4464650931402357E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.3652515429212643E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.229075247846579E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.1506406960241882E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0163845936107327E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.7858439684239232E-4</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.206148522757519E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.0816916877925427E-3</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2509669646820114E-3</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.1155853604529783E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.8887675234777444E-4</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.5626121879721585E-3</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.1958042413930228E-3</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.8320254231791943E-3</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0494136385238847E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.4340917757722132E-3</v>
       </c>
     </row>
@@ -7143,103 +7651,103 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="21" x14ac:dyDescent="0.25">
@@ -7247,103 +7755,103 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -7351,25 +7859,25 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1">
         <v>33900000</v>
@@ -7455,34 +7963,34 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1">
         <v>282519000</v>
@@ -7521,13 +8029,13 @@
         <v>148997000</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA39" s="1">
         <v>128747000</v>
@@ -7536,16 +8044,16 @@
         <v>140695000</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG39" s="1">
         <v>147949000</v>
@@ -7559,25 +8067,25 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1">
         <v>33900000</v>
@@ -7663,25 +8171,25 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1">
         <v>61100000</v>
@@ -7767,88 +8275,88 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD42" s="1">
         <v>122407000</v>
@@ -7871,25 +8379,25 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1">
         <v>222600000</v>
@@ -7975,25 +8483,25 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="10">
         <v>317600000</v>
@@ -8079,25 +8587,25 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1">
         <v>51500000</v>
@@ -8183,52 +8691,52 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1">
         <v>735643000</v>
@@ -8287,34 +8795,34 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1">
         <v>51776000</v>
@@ -8391,34 +8899,34 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1">
         <v>51776000</v>
@@ -8495,103 +9003,103 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -8599,49 +9107,49 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1">
         <v>35085000</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1">
         <v>82384000</v>
@@ -8703,25 +9211,25 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1">
         <v>39900000</v>
@@ -8807,25 +9315,25 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1">
         <v>91400000</v>
@@ -8911,103 +9419,103 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9015,25 +9523,25 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="11">
         <v>409000000</v>
@@ -9119,25 +9627,25 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1">
         <v>11500000</v>
@@ -9223,25 +9731,25 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1">
         <v>11600000</v>
@@ -9262,31 +9770,31 @@
         <v>1423000</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1">
         <v>30000000</v>
@@ -9327,103 +9835,103 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG57" s="1">
         <v>46443000</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -9431,37 +9939,37 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1">
         <v>379759000</v>
@@ -9535,25 +10043,25 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1">
         <v>137200000</v>
@@ -9639,25 +10147,25 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10">
         <v>160300000</v>
@@ -9743,25 +10251,25 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1">
         <v>16000000</v>
@@ -9779,34 +10287,34 @@
         <v>73000</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X61" s="1">
         <v>105000000</v>
@@ -9818,10 +10326,10 @@
         <v>45000000</v>
       </c>
       <c r="AA61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC61" s="1">
         <v>134063000</v>
@@ -9847,61 +10355,61 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1">
         <v>34739000</v>
@@ -9951,103 +10459,103 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1">
         <v>152745000</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1">
         <v>52645000</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -10055,28 +10563,28 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1">
         <v>3200000</v>
@@ -10159,25 +10667,25 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1">
         <v>16000000</v>
@@ -10263,103 +10771,103 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -10367,25 +10875,25 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="10">
         <v>176300000</v>
@@ -10471,34 +10979,34 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1">
         <v>629000</v>
@@ -10575,25 +11083,25 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1">
         <v>72300000</v>
@@ -10679,25 +11187,25 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1">
         <v>-41000000</v>
@@ -10783,25 +11291,25 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1">
         <v>201400000</v>
@@ -10887,25 +11395,25 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="10">
         <v>232700000</v>
@@ -10991,25 +11499,25 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11">
         <v>409000000</v>
@@ -11095,103 +11603,103 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:34" ht="21" x14ac:dyDescent="0.25">
@@ -11199,103 +11707,103 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11511,22 +12019,22 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1">
         <v>-11900000</v>
@@ -11615,61 +12123,61 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1">
         <v>56934000</v>
@@ -11716,138 +12224,138 @@
     </row>
     <row r="80" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AH80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AH80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1861850159369725E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.3448753893968177E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6736402926982381E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.066817120790972E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4405523556553977E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8610488988428518E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8533394047215001E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0281408047447877E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.9742667567012127E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.4866836822641552E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.6121723667790049E-2</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.7453200990643586E-2</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.2125630293376162E-2</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.033261950801548E-2</v>
       </c>
     </row>
@@ -11960,61 +12468,61 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1">
         <v>22830000</v>
@@ -12064,88 +12572,88 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD83" s="1">
         <v>-66509000</v>
@@ -12162,140 +12670,140 @@
       <c r="AH83" s="1">
         <v>1320000</v>
       </c>
-      <c r="AO83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP83" s="63"/>
+      <c r="AO83" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP83" s="31"/>
     </row>
     <row r="84" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1">
         <v>10566000</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP84" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="AO84" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP84" s="32"/>
     </row>
     <row r="85" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1">
         <v>157300000</v>
@@ -12378,10 +12886,10 @@
       <c r="AH85" s="1">
         <v>415895000</v>
       </c>
-      <c r="AO85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP85" s="24">
+      <c r="AO85" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP85" s="34">
         <f>AH17</f>
         <v>1698000</v>
       </c>
@@ -12489,10 +12997,10 @@
       <c r="AH86" s="1">
         <v>169278000</v>
       </c>
-      <c r="AO86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP86" s="24">
+      <c r="AO86" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP86" s="34">
         <f>AH56</f>
         <v>54274000</v>
       </c>
@@ -12600,10 +13108,10 @@
       <c r="AH87" s="10">
         <v>1738900000</v>
       </c>
-      <c r="AO87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP87" s="24">
+      <c r="AO87" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP87" s="34">
         <f>AH61</f>
         <v>602097000</v>
       </c>
@@ -12711,154 +13219,154 @@
       <c r="AH88" s="1">
         <v>-136589000</v>
       </c>
-      <c r="AO88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP88" s="34">
+      <c r="AO88" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP88" s="36">
         <f>AP85/(AP86+AP87)</f>
         <v>2.5869515868312282E-3</v>
       </c>
     </row>
     <row r="89" spans="1:42" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:AH89" si="9">(-1*B88)/B3</f>
+        <v>4.9773755656108594E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.9012345679012344E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.6326530612244902E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.8719397363465157E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.11117397454031118</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.10919655379683431</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.12313692714862794</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.13931274035479468</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.7397196655175313E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.12124641728522084</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.3781766596729966E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.2607242415565898E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.1209445254298128E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.3917369252498409E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.6923034794990687E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.9002234283928086E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.1222535455674889E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8821840453808513E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8408856337652763E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.7342663626897657E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0860179599628022E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.3359766060174885E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.0195093784994399E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.8785377468935796E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.7619449402525951E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5809576935498076E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.1712323192968538E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.895478731476296E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.1982415994872575E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.2302496579010525E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.6879439351283528E-2</v>
+      </c>
+      <c r="AO89" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:AH89" si="7">(-1*B88)/B3</f>
-        <v>4.9773755656108594E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.9012345679012344E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.8888888888888892E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.6326530612244902E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.8719397363465157E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11117397454031118</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10919655379683431</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12313692714862794</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.13931274035479468</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.7397196655175313E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12124641728522084</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.3781766596729966E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.2607242415565898E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.1209445254298128E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.3917369252498409E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.6923034794990687E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.9002234283928086E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.1222535455674889E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.8821840453808513E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.8408856337652763E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7342663626897657E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0860179599628022E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.3359766060174885E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.0195093784994399E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.8785377468935796E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.7619449402525951E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.5809576935498076E-2</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.1712323192968538E-2</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.895478731476296E-2</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.1982415994872575E-2</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.2302496579010525E-2</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.6879439351283528E-2</v>
-      </c>
-      <c r="AO89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP89" s="24">
+      <c r="AP89" s="34">
         <f>AH27</f>
         <v>137078000</v>
       </c>
@@ -12868,46 +13376,46 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1">
         <v>-14474000</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1">
         <v>168311000</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1">
         <v>-60138000</v>
@@ -12937,7 +13445,7 @@
         <v>-970089000</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z90" s="1">
         <v>-394623000</v>
@@ -12966,10 +13474,10 @@
       <c r="AH90" s="1">
         <v>-422374000</v>
       </c>
-      <c r="AO90" s="23" t="s">
+      <c r="AO90" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AP90" s="24">
+      <c r="AP90" s="34">
         <f>AH25</f>
         <v>1115514000</v>
       </c>
@@ -12991,7 +13499,7 @@
         <v>-24700000</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1">
         <v>-29500000</v>
@@ -13048,10 +13556,10 @@
         <v>-18179000</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA91" s="1">
         <v>-238902000</v>
@@ -13077,10 +13585,10 @@
       <c r="AH91" s="1">
         <v>-104245000</v>
       </c>
-      <c r="AO91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AP91" s="34">
+      <c r="AO91" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP91" s="36">
         <f>AP89/AP90</f>
         <v>0.12288326278289649</v>
       </c>
@@ -13090,34 +13598,34 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1">
         <v>2000000</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>300000</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1">
         <v>2806949000</v>
@@ -13189,7 +13697,7 @@
         <v>94278000</v>
       </c>
       <c r="AO92" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AP92" s="36">
         <f>AP88*(1-AP91)</f>
@@ -13204,7 +13712,7 @@
         <v>-100000</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>-2900000</v>
@@ -13249,13 +13757,13 @@
         <v>-2953000</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S93" s="1">
         <v>26298000</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U93" s="1">
         <v>-2852000</v>
@@ -13299,10 +13807,10 @@
       <c r="AH93" s="1">
         <v>-3693000</v>
       </c>
-      <c r="AO93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP93" s="65"/>
+      <c r="AO93" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP93" s="32"/>
     </row>
     <row r="94" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -13407,11 +13915,12 @@
       <c r="AH94" s="10">
         <v>-572623000</v>
       </c>
-      <c r="AO94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP94" s="37">
-        <v>4.095E-2</v>
+      <c r="AO94" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP94" s="66">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13419,61 +13928,61 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1">
         <v>-3745000</v>
@@ -13518,9 +14027,9 @@
         <v>-76838000</v>
       </c>
       <c r="AO95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP95" s="58" cm="1">
+        <v>134</v>
+      </c>
+      <c r="AP95" s="39" cm="1">
         <f t="array" ref="AP95">_FV(A1,"Beta")</f>
         <v>1.1374</v>
       </c>
@@ -13530,7 +14039,7 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1">
         <v>4900000</v>
@@ -13628,8 +14137,8 @@
       <c r="AH96" s="1">
         <v>237956000</v>
       </c>
-      <c r="AO96" s="23" t="s">
-        <v>137</v>
+      <c r="AO96" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="AP96" s="37">
         <v>8.4000000000000005E-2</v>
@@ -13640,22 +14149,22 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-14800000</v>
@@ -13697,7 +14206,7 @@
         <v>-220053000</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1">
         <v>-184699000</v>
@@ -13739,11 +14248,11 @@
         <v>-1100000000</v>
       </c>
       <c r="AO97" s="35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AP97" s="36">
         <f>(AP94)+((AP95)*(AP96-AP94))</f>
-        <v>8.9915070000000014E-2</v>
+        <v>9.0166512000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -13751,108 +14260,108 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP98" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="AH98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO98" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP98" s="32"/>
     </row>
     <row r="99" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -13874,7 +14383,7 @@
         <v>-400000</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H99" s="1">
         <v>-5500000</v>
@@ -13895,22 +14404,22 @@
         <v>-6468000</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T99" s="1">
         <v>-2970000</v>
@@ -13919,7 +14428,7 @@
         <v>1279000</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W99" s="1">
         <v>-33335000</v>
@@ -13957,10 +14466,10 @@
       <c r="AH99" s="1">
         <v>-177418000</v>
       </c>
-      <c r="AO99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP99" s="24">
+      <c r="AO99" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP99" s="34">
         <f>AP86+AP87</f>
         <v>656371000</v>
       </c>
@@ -14068,10 +14577,10 @@
       <c r="AH100" s="10">
         <v>-1116300000</v>
       </c>
-      <c r="AO100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP100" s="34">
+      <c r="AO100" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP100" s="36">
         <f>AP99/AP103</f>
         <v>1.0021521672742681E-2</v>
       </c>
@@ -14081,10 +14590,10 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1">
         <v>200000</v>
@@ -14180,9 +14689,9 @@
         <v>-65296000</v>
       </c>
       <c r="AO101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP101" s="39" cm="1">
+        <v>140</v>
+      </c>
+      <c r="AP101" s="40" cm="1">
         <f t="array" ref="AP101">_FV(A1,"Market cap",TRUE)</f>
         <v>64839770348</v>
       </c>
@@ -14290,10 +14799,10 @@
       <c r="AH102" s="10">
         <v>-15319000</v>
       </c>
-      <c r="AO102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP102" s="34">
+      <c r="AO102" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP102" s="36">
         <f>AP101/AP103</f>
         <v>0.98997847832725727</v>
       </c>
@@ -14402,9 +14911,9 @@
         <v>1435183000</v>
       </c>
       <c r="AO103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP103" s="40">
+        <v>142</v>
+      </c>
+      <c r="AP103" s="41">
         <f>AP99+AP101</f>
         <v>65496141348</v>
       </c>
@@ -14414,31 +14923,31 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11">
         <v>285300000</v>
@@ -14512,460 +15021,573 @@
       <c r="AH104" s="11">
         <v>1419864000</v>
       </c>
-      <c r="AO104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP104" s="65"/>
+      <c r="AO104" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP104" s="32"/>
     </row>
     <row r="105" spans="1:42" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.55102040816326525</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>4.9090909090909092</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>1.8846153846153846</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.1253333333333333</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.32227488151658767</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AH105" si="8">(H106/G106)-1</f>
-        <v>-0.12186379928315416</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.12448979591836729</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.0889292196007316E-2</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.99281867145421909</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.25572072072072072</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.5822913514494945</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.0771927850901863</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.4855529059546395</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.35840368380660015</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.0109755652142134E-2</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.31531687253741791</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.4998802457228302</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.25076840614310614</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.31877862067773766</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.5167370172697201</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.27135646455557749</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.12757375962282214</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.1886484279297624E-3</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.8357298362863723E-2</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>-8.9016755247275037E-2</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.27460674935045359</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>8.8084640076028675E-2</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.4254907657782111</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.85576750044988303</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.39193479623824445</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.67783355013686841</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.14527784021842938</v>
-      </c>
-      <c r="AI105" s="15"/>
-      <c r="AJ105" s="15"/>
-      <c r="AK105" s="15"/>
-      <c r="AL105" s="15"/>
-      <c r="AM105" s="15"/>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP105" s="26">
+        <v>162</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:AG105" si="10">(B22*(1-$AP$91))+B77+B88-B81</f>
+        <v>4373295.3598072277</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>6673295.3598072277</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>9009725.7407795861</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>2942334.7443420701</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>30839772.158843368</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>38310070.335289381</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>41670208.173093289</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>73767165.988055721</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>122237374.16114902</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>161448703.28834957</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>67247622.457450092</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>-287795156.30104148</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>93177615.016933903</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>302005437.66729957</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>198377558.50128281</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>-43354153.20471102</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>62801299.809773803</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>32602368.128055751</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>246575802.52511394</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>368868437.64219904</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>314609962.48904091</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>247304157.69949996</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>210316230.87294286</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>342716135.90685546</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>262792843.53042632</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>421401788.49929273</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>390216466.80902255</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>350210324.53738815</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>576680376.66403103</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="10"/>
+        <v>536128317.31919098</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="10"/>
+        <v>787663050.53455174</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="10"/>
+        <v>624227607.33975542</v>
+      </c>
+      <c r="AH105" s="1">
+        <f>(AH22*(1-$AP$91))+AH77+AH88-AH81</f>
+        <v>1170393979.0822885</v>
+      </c>
+      <c r="AI105" s="27">
+        <f>AH105*(1+$AP$106)</f>
+        <v>1322664239.4259088</v>
+      </c>
+      <c r="AJ105" s="27">
+        <f t="shared" ref="AJ105:AM105" si="11">AI105*(1+$AP$106)</f>
+        <v>1494745121.3204827</v>
+      </c>
+      <c r="AK105" s="27">
+        <f t="shared" si="11"/>
+        <v>1689214020.5447359</v>
+      </c>
+      <c r="AL105" s="27">
+        <f t="shared" si="11"/>
+        <v>1908983656.4805989</v>
+      </c>
+      <c r="AM105" s="27">
+        <f t="shared" si="11"/>
+        <v>2157345698.288044</v>
+      </c>
+      <c r="AN105" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO105" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP105" s="43">
         <f>(AP100*AP92)+(AP102*AP97)</f>
-        <v>8.903672359657587E-2</v>
+        <v>8.928564576512342E-2</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>4900000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>2200000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>13000000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>37500000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>42200000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>55800000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>49000000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>55100000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>55700000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>111000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>82615000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>213336000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>-229804000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>341386000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>219032000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>225627000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>154483000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>386189000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>289345000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>197108000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>298961000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>380086000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>428575000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>427637000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>444040000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>404513000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>515595000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>561011000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>322306000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>598125000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>832551000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>1396882000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>1599818000</v>
-      </c>
-      <c r="AI106" s="41">
-        <f>AH106*(1+$AP$106)</f>
-        <v>1802628543.3431706</v>
-      </c>
-      <c r="AJ106" s="41">
-        <f t="shared" ref="AJ106:AM106" si="9">AI106*(1+$AP$106)</f>
-        <v>2031149584.0623879</v>
-      </c>
-      <c r="AK106" s="41">
-        <f t="shared" si="9"/>
-        <v>2288640467.8722639</v>
-      </c>
-      <c r="AL106" s="41">
-        <f t="shared" si="9"/>
-        <v>2578773731.0349126</v>
-      </c>
-      <c r="AM106" s="41">
-        <f t="shared" si="9"/>
-        <v>2905687480.9428935</v>
-      </c>
-      <c r="AN106" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO106" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP106" s="44">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>-0.55102040816326525</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>4.9090909090909092</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>1.8846153846153846</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>0.1253333333333333</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>0.32227488151658767</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-0.12186379928315416</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>0.12448979591836729</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>1.0889292196007316E-2</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>0.99281867145421909</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>-0.25572072072072072</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>1.5822913514494945</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-2.0771927850901863</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>-2.4855529059546395</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-0.35840368380660015</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>3.0109755652142134E-2</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>-0.31531687253741791</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>1.4998802457228302</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>-0.25076840614310614</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>-0.31877862067773766</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>0.5167370172697201</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>0.27135646455557749</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>0.12757375962282214</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>-2.1886484279297624E-3</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>3.8357298362863723E-2</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>-8.9016755247275037E-2</v>
+      </c>
+      <c r="AB106" s="15">
+        <f>(AB107/AA107)-1</f>
+        <v>0.27460674935045359</v>
+      </c>
+      <c r="AC106" s="15">
+        <f>(AC107/AB107)-1</f>
+        <v>8.8084640076028675E-2</v>
+      </c>
+      <c r="AD106" s="15">
+        <f>(AD107/AC107)-1</f>
+        <v>-0.4254907657782111</v>
+      </c>
+      <c r="AE106" s="15">
+        <f>(AE107/AD107)-1</f>
+        <v>0.85576750044988303</v>
+      </c>
+      <c r="AF106" s="15">
+        <f>(AF107/AE107)-1</f>
+        <v>0.39193479623824445</v>
+      </c>
+      <c r="AG106" s="15">
+        <f>(AG107/AF107)-1</f>
+        <v>0.67783355013686841</v>
+      </c>
+      <c r="AH106" s="15">
+        <f>(AH107/AG107)-1</f>
+        <v>0.14527784021842938</v>
+      </c>
+      <c r="AI106" s="67">
+        <v>1805000000</v>
+      </c>
+      <c r="AJ106" s="67">
+        <v>2128000000</v>
+      </c>
+      <c r="AK106" s="67">
+        <v>2492000000</v>
+      </c>
+      <c r="AL106" s="67">
+        <v>3027000000</v>
+      </c>
+      <c r="AM106" s="67">
+        <v>3547000000</v>
+      </c>
+      <c r="AN106" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO106" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP106" s="45">
         <f>(SUM(AI4:AM4)/5)</f>
-        <v>0.12677100979184547</v>
+        <v>0.13010171195772574</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="42"/>
-      <c r="AJ107" s="42"/>
-      <c r="AK107" s="42"/>
-      <c r="AL107" s="42"/>
-      <c r="AM107" s="45">
+      <c r="A107" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
+        <v>4900000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2200000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>13000000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>37500000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>42200000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>55800000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>49000000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>55100000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>55700000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>111000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>82615000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>213336000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>-229804000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>341386000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>219032000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>225627000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>154483000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>386189000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>289345000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>197108000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>298961000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>380086000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>428575000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>427637000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>444040000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>404513000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>515595000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>561011000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>322306000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>598125000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>832551000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>1396882000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>1599818000</v>
+      </c>
+      <c r="AI107" s="28"/>
+      <c r="AJ107" s="28"/>
+      <c r="AK107" s="28"/>
+      <c r="AL107" s="28"/>
+      <c r="AM107" s="69">
         <f>AM106*(1+AP107)/(AP108-AP107)</f>
-        <v>46509713500.172287</v>
-      </c>
-      <c r="AN107" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO107" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP107" s="48">
+        <v>56555004725.058624</v>
+      </c>
+      <c r="AN107" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO107" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="AI108" s="45">
-        <f t="shared" ref="AI108:AK108" si="10">AI107+AI106</f>
-        <v>1802628543.3431706</v>
-      </c>
-      <c r="AJ108" s="45">
-        <f t="shared" si="10"/>
-        <v>2031149584.0623879</v>
-      </c>
-      <c r="AK108" s="45">
-        <f t="shared" si="10"/>
-        <v>2288640467.8722639</v>
-      </c>
-      <c r="AL108" s="45">
+      <c r="AI108" s="69">
+        <f t="shared" ref="AI108:AK108" si="12">AI107+AI106</f>
+        <v>1805000000</v>
+      </c>
+      <c r="AJ108" s="69">
+        <f t="shared" si="12"/>
+        <v>2128000000</v>
+      </c>
+      <c r="AK108" s="69">
+        <f t="shared" si="12"/>
+        <v>2492000000</v>
+      </c>
+      <c r="AL108" s="69">
         <f>AL107+AL106</f>
-        <v>2578773731.0349126</v>
-      </c>
-      <c r="AM108" s="45">
+        <v>3027000000</v>
+      </c>
+      <c r="AM108" s="69">
         <f>AM107+AM106</f>
-        <v>49415400981.115181</v>
-      </c>
-      <c r="AN108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO108" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP108" s="50">
+        <v>60102004725.058624</v>
+      </c>
+      <c r="AN108" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO108" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP108" s="45">
         <f>AP105</f>
-        <v>8.903672359657587E-2</v>
+        <v>8.928564576512342E-2</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="AI109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ109" s="61"/>
+      <c r="AI109" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ109" s="49"/>
     </row>
     <row r="110" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI110" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="AJ110" s="39">
+      <c r="AI110" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ110" s="40">
         <f>NPV(AP108,AI108,AJ108,AK108,AL108,AM108)</f>
-        <v>39232049399.711777</v>
+        <v>46719030056.742203</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ111" s="39">
+      <c r="AI111" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ111" s="40">
         <f>AH40</f>
         <v>1565521000</v>
       </c>
     </row>
     <row r="112" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ112" s="39">
+      <c r="AI112" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ112" s="40">
         <f>AP99</f>
         <v>656371000</v>
       </c>
     </row>
     <row r="113" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI113" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ113" s="39">
+      <c r="AI113" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ113" s="40">
         <f>AJ110+AJ111-AJ112</f>
-        <v>40141199399.711777</v>
+        <v>47628180056.742203</v>
       </c>
     </row>
     <row r="114" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI114" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ114" s="52">
+      <c r="AI114" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ114" s="50">
         <f>AH34*(1+(5*AN16))</f>
         <v>158132045.63753816</v>
       </c>
     </row>
     <row r="115" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI115" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ115" s="54">
+      <c r="AI115" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ115" s="52">
         <f>AJ113/AJ114</f>
-        <v>253.84607678902285</v>
+        <v>301.19246143133427</v>
       </c>
     </row>
     <row r="116" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI116" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ116" s="59" cm="1">
+      <c r="AI116" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ116" s="53" cm="1">
         <f t="array" ref="AJ116">_FV(A1,"Price")</f>
         <v>426.13</v>
       </c>
     </row>
     <row r="117" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI117" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ117" s="56">
+      <c r="AI117" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ117" s="54">
         <f>AJ115/AJ116-1</f>
-        <v>-0.40429897733315456</v>
+        <v>-0.29319113549542564</v>
       </c>
     </row>
     <row r="118" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI118" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ118" s="57" t="str">
+      <c r="AI118" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ118" s="55" t="str">
         <f>IF(AJ115&gt;AJ116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -15048,8 +15670,9 @@
     <hyperlink ref="AH36" r:id="rId66" tooltip="https://www.sec.gov/Archives/edgar/data/883241/000088324122000017/0000883241-22-000017-index.htm" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
     <hyperlink ref="AH74" r:id="rId67" tooltip="https://www.sec.gov/Archives/edgar/data/883241/000088324122000017/0000883241-22-000017-index.htm" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="AI1" r:id="rId68" display="https://finbox.com/NASDAQGS:SNPS/explorer/revenue_proj" xr:uid="{D664F57E-D868-3041-88A2-27A4A29DA87C}"/>
+    <hyperlink ref="AN106" r:id="rId69" xr:uid="{7A5298CD-54F2-9B4E-9E63-193A599E5499}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId69"/>
+  <drawing r:id="rId70"/>
 </worksheet>
 </file>
--- a/Technology/Software/Synopsys.xlsx
+++ b/Technology/Software/Synopsys.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC4AE0A-3266-BB40-B7CE-595DC80AE39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2B8584-CF22-C749-8774-35B5F5FDB6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -408,9 +408,6 @@
     <t>3yr FCF Growth</t>
   </si>
   <si>
-    <t>Gross Profit Margin</t>
-  </si>
-  <si>
     <t>EBITDA Margin</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>FCF Growth Rate</t>
-  </si>
-  <si>
     <t>Terminal Value</t>
   </si>
   <si>
@@ -558,9 +552,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -570,10 +561,22 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>5Y Fwd Revenue CAGR</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -585,10 +588,10 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -700,6 +703,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -880,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -930,77 +940,34 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1011,10 +978,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,7 +1136,6 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Synopsys</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1104,15 +1172,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.37615894039735E-2"/>
-          <c:y val="0.17692255302120621"/>
-          <c:w val="0.84663576158940412"/>
-          <c:h val="0.62973426588446013"/>
+          <c:x val="9.1219759129952116E-2"/>
+          <c:y val="0.14881019830028328"/>
+          <c:w val="0.85964773532333583"/>
+          <c:h val="0.62209564810064466"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1163,10 +1231,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AH$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1990</c:v>
                 </c:pt>
@@ -1265,16 +1333,31 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AH$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AM$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>22100000</c:v>
                 </c:pt>
@@ -1373,13 +1456,28 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5081542000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5826000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6560000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7375000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8428000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9388000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-951A-F44D-9B13-48143FDC4587}"/>
+              <c16:uniqueId val="{00000000-8D54-D74F-9494-FA8D43040F60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1432,10 +1530,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AH$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1990</c:v>
                 </c:pt>
@@ -1534,16 +1632,31 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$28:$AH$28</c:f>
+              <c:f>'Sheet 1'!$B$28:$AM$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>4000000</c:v>
                 </c:pt>
@@ -1642,13 +1755,28 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>984594000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1721000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1982000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2299000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2692000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3109000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-951A-F44D-9B13-48143FDC4587}"/>
+              <c16:uniqueId val="{00000001-8D54-D74F-9494-FA8D43040F60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1701,10 +1829,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AH$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AM$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1990</c:v>
                 </c:pt>
@@ -1803,16 +1931,31 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AH$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AM$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>4900000</c:v>
                 </c:pt>
@@ -1911,13 +2054,28 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1599818000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1839000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2119000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2486000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3160000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3636000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-951A-F44D-9B13-48143FDC4587}"/>
+              <c16:uniqueId val="{00000002-8D54-D74F-9494-FA8D43040F60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1929,13 +2087,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="680277471"/>
-        <c:axId val="661708815"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1703374303"/>
+        <c:axId val="1703376031"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="680277471"/>
+        <c:axId val="1703374303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,7 +2121,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1975,7 +2133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661708815"/>
+        <c:crossAx val="1703376031"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1983,7 +2141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="661708815"/>
+        <c:axId val="1703376031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2020,7 +2178,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -2032,7 +2190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="680277471"/>
+        <c:crossAx val="1703374303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2046,6 +2204,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3323006698871494"/>
+          <c:y val="0.89623778408346289"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="5.8069416252146955E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2059,7 +2227,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2150,7 +2318,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2388,7 +2556,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2623,22 +2790,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>18345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE3DE47-A43A-4D98-DEA6-39639AC74BCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9532DB-441F-CC65-D7A2-16F57EE56B7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,38 +2833,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2833,11 +3000,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>468.03</v>
-    <v>267</v>
-    <v>1.1374</v>
-    <v>-0.21</v>
-    <v>-4.9259999999999994E-4</v>
+    <v>502.66</v>
+    <v>269.88</v>
+    <v>1.0820000000000001</v>
+    <v>-3.36</v>
+    <v>-6.9169999999999995E-3</v>
+    <v>-2.37</v>
+    <v>-4.9129999999999998E-3</v>
     <v>USD</v>
     <v>Synopsys, Inc. offers electronic design automation (EDA) software that it uses to design and test integrated circuits (ICs). The Company provides software and hardware used to validate the electronic systems that incorporate chips and the software that runs on them. It provides technical services and support to help its customers develop advanced chips and electronic systems. These products and services are part of its Design Automation segment. It offers semiconductor intellectual property (IP) products, which are pre-designed circuits that engineers use as components of larger chip designs rather than designing those circuits themselves. These products and services are part of its Design IP segment. It is a provider of software tools and services that improve the security, quality and compliance of software in various industries, such as electronics, financial services, automotive, medicine, energy and industrials. These tools and services are part of its Software Integrity segment.</v>
     <v>19000</v>
@@ -2845,25 +3014,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>675 Almanor Ave, SUNNYVALE, CA, 94085 US</v>
-    <v>427.85</v>
+    <v>492.33</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.991147892972</v>
+    <v>45218.993275231252</v>
     <v>0</v>
-    <v>417.81</v>
-    <v>64839770348</v>
+    <v>481.35</v>
+    <v>73360662606</v>
     <v>SYNOPSYS, INC.</v>
     <v>SYNOPSYS, INC.</v>
-    <v>423.78</v>
-    <v>71.912300000000002</v>
-    <v>426.34</v>
-    <v>426.13</v>
-    <v>424.87</v>
-    <v>152159600</v>
+    <v>488.51</v>
+    <v>74.574799999999996</v>
+    <v>485.73</v>
+    <v>482.37</v>
+    <v>480</v>
+    <v>152083800</v>
     <v>SNPS</v>
     <v>SYNOPSYS, INC. (XNAS:SNPS)</v>
-    <v>9</v>
-    <v>1309710</v>
+    <v>642481</v>
+    <v>797896</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2895,6 +3064,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2932,7 +3103,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="43">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2950,7 +3121,9 @@
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3017,6 +3190,8 @@
       <v>9</v>
       <v>4</v>
       <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
       <v>at close</v>
@@ -3025,6 +3200,8 @@
       <v>Source: Nasdaq</v>
       <v>GMT</v>
       <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3070,6 +3247,8 @@
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
     <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3078,6 +3257,8 @@
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
     <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3436,13 +3617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ118"/>
+  <dimension ref="A1:AQ119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL14" sqref="AL14"/>
+      <selection pane="bottomRight" activeCell="AJ83" sqref="AJ83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3790,19 +3971,19 @@
         <v>5081542000</v>
       </c>
       <c r="AI3" s="24">
-        <v>5810000000</v>
+        <v>5826000000</v>
       </c>
       <c r="AJ3" s="24">
-        <v>6532000000</v>
+        <v>6560000000</v>
       </c>
       <c r="AK3" s="24">
         <v>7375000000</v>
       </c>
       <c r="AL3" s="24">
-        <v>8387000000</v>
+        <v>8428000000</v>
       </c>
       <c r="AM3" s="24">
-        <v>9365000000</v>
+        <v>9388000000</v>
       </c>
       <c r="AN3" s="18" t="s">
         <v>107</v>
@@ -3822,153 +4003,153 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="68">
+      <c r="C4" s="43">
         <f>(C3/B3)-1</f>
         <v>0.83257918552036192</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="43">
         <f>(D3/C3)-1</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="43">
         <f>(E3/D3)-1</f>
         <v>0.71428571428571419</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="43">
         <f t="shared" ref="F4:AM4" si="0">(F3/E3)-1</f>
         <v>0.81481481481481488</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="43">
         <f t="shared" si="0"/>
         <v>0.35459183673469385</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="43">
         <f t="shared" si="0"/>
         <v>0.33145009416195848</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="43">
         <f t="shared" si="0"/>
         <v>0.4118811881188118</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="43">
         <f t="shared" si="0"/>
         <v>0.43838910038068524</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="43">
         <f t="shared" si="0"/>
         <v>0.12285833681571257</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="43">
         <f t="shared" si="0"/>
         <v>-2.7691353430095544E-2</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="43">
         <f t="shared" si="0"/>
         <v>-0.13196083584892659</v>
       </c>
-      <c r="N4" s="68">
+      <c r="N4" s="43">
         <f t="shared" si="0"/>
         <v>0.3324524141985743</v>
       </c>
-      <c r="O4" s="68">
+      <c r="O4" s="43">
         <f t="shared" si="0"/>
         <v>0.29833299137153158</v>
       </c>
-      <c r="P4" s="68">
+      <c r="P4" s="43">
         <f t="shared" si="0"/>
         <v>-7.2115739989447647E-2</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="43">
         <f t="shared" si="0"/>
         <v>-9.1724780790107929E-2</v>
       </c>
-      <c r="R4" s="68">
+      <c r="R4" s="43">
         <f t="shared" si="0"/>
         <v>0.10447198444246619</v>
       </c>
-      <c r="S4" s="68">
+      <c r="S4" s="43">
         <f t="shared" si="0"/>
         <v>0.10671163605827161</v>
       </c>
-      <c r="T4" s="68">
+      <c r="T4" s="43">
         <f t="shared" si="0"/>
         <v>0.10266819192903087</v>
       </c>
-      <c r="U4" s="68">
+      <c r="U4" s="43">
         <f t="shared" si="0"/>
         <v>1.727363231711565E-2</v>
       </c>
-      <c r="V4" s="68">
+      <c r="V4" s="43">
         <f t="shared" si="0"/>
         <v>1.5158321967287947E-2</v>
       </c>
-      <c r="W4" s="68">
+      <c r="W4" s="43">
         <f t="shared" si="0"/>
         <v>0.11225203000591755</v>
       </c>
-      <c r="X4" s="68">
+      <c r="X4" s="43">
         <f t="shared" si="0"/>
         <v>0.1435060101859611</v>
       </c>
-      <c r="Y4" s="68">
+      <c r="Y4" s="43">
         <f t="shared" si="0"/>
         <v>0.11742312289687407</v>
       </c>
-      <c r="Z4" s="68">
+      <c r="Z4" s="43">
         <f t="shared" si="0"/>
         <v>4.8546183036101143E-2</v>
       </c>
-      <c r="AA4" s="68">
+      <c r="AA4" s="43">
         <f t="shared" si="0"/>
         <v>8.9789314265273035E-2</v>
       </c>
-      <c r="AB4" s="68">
+      <c r="AB4" s="43">
         <f t="shared" si="0"/>
         <v>8.0421066527637253E-2</v>
       </c>
-      <c r="AC4" s="68">
+      <c r="AC4" s="43">
         <f t="shared" si="0"/>
         <v>0.12480660730178172</v>
       </c>
-      <c r="AD4" s="68">
+      <c r="AD4" s="43">
         <f t="shared" si="0"/>
         <v>0.14539282463814929</v>
       </c>
-      <c r="AE4" s="68">
+      <c r="AE4" s="43">
         <f t="shared" si="0"/>
         <v>7.6780373834770099E-2</v>
       </c>
-      <c r="AF4" s="68">
+      <c r="AF4" s="43">
         <f t="shared" si="0"/>
         <v>9.6583324753756195E-2</v>
       </c>
-      <c r="AG4" s="68">
+      <c r="AG4" s="43">
         <f t="shared" si="0"/>
         <v>0.14080663048489384</v>
       </c>
-      <c r="AH4" s="68">
+      <c r="AH4" s="43">
         <f t="shared" si="0"/>
         <v>0.20868428257218441</v>
       </c>
       <c r="AI4" s="16">
         <f t="shared" si="0"/>
-        <v>0.14335373002919183</v>
+        <v>0.14650238057660459</v>
       </c>
       <c r="AJ4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12426850258175559</v>
+        <v>0.12598695502917945</v>
       </c>
       <c r="AK4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12905695039804033</v>
+        <v>0.12423780487804881</v>
       </c>
       <c r="AL4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13722033898305086</v>
+        <v>0.14277966101694917</v>
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11660903779659004</v>
+        <v>0.11390602752729007</v>
       </c>
       <c r="AN4" s="17">
         <f>(AH4+AG4+AF4)/3</f>
@@ -4194,17 +4375,21 @@
       <c r="AH6" s="10">
         <v>4017845000</v>
       </c>
-      <c r="AN6" s="18" t="s">
+      <c r="AI6" s="10">
+        <f>AI3*AI7</f>
+        <v>4621765800</v>
+      </c>
+      <c r="AN6" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO6" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="AO6" s="19" t="s">
+      <c r="AP6" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="AP6" s="19" t="s">
+      <c r="AQ6" s="48" t="s">
         <v>113</v>
-      </c>
-      <c r="AQ6" s="19" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -4310,21 +4495,24 @@
       <c r="AH7" s="2">
         <v>0.79069999999999996</v>
       </c>
+      <c r="AI7" s="2">
+        <v>0.79330000000000001</v>
+      </c>
       <c r="AN7" s="17">
-        <f>AH7</f>
-        <v>0.79069999999999996</v>
+        <f>AI7</f>
+        <v>0.79330000000000001</v>
       </c>
       <c r="AO7" s="20">
-        <f>AH21</f>
-        <v>0.26600000000000001</v>
+        <f>AI21</f>
+        <v>0.37092344661860627</v>
       </c>
       <c r="AP7" s="20">
-        <f>AH30</f>
-        <v>0.1938</v>
+        <f>AI30</f>
+        <v>0.29539993134225884</v>
       </c>
       <c r="AQ7" s="20">
-        <f>AH107/AH3</f>
-        <v>0.31482923884128083</v>
+        <f>AI107/AI3</f>
+        <v>0.315653964984552</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -4908,16 +5096,16 @@
         <v>1133617000</v>
       </c>
       <c r="AN12" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AO12" s="19" t="s">
+      <c r="AP12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="AP12" s="19" t="s">
+      <c r="AQ12" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="AQ12" s="19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -5281,16 +5469,16 @@
         <v>2843750000</v>
       </c>
       <c r="AN15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO15" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AO15" s="19" t="s">
+      <c r="AP15" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AP15" s="19" t="s">
+      <c r="AQ15" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="AQ15" s="19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -5400,17 +5588,17 @@
         <f>(AH35+AG35+AF35+AE35+AD35)/5</f>
         <v>2.1050524172133381E-3</v>
       </c>
-      <c r="AO16" s="56">
-        <f>AP101/AH3</f>
-        <v>12.759861150020997</v>
-      </c>
-      <c r="AP16" s="56">
-        <f>AP101/AH28</f>
-        <v>65.854322033244159</v>
-      </c>
-      <c r="AQ16" s="57">
-        <f>AP101/AH107</f>
-        <v>40.529466694336477</v>
+      <c r="AO16" s="33">
+        <f>AP102/AH3</f>
+        <v>14.436693154558203</v>
+      </c>
+      <c r="AP16" s="33">
+        <f>AP102/AH28</f>
+        <v>74.508541191597757</v>
+      </c>
+      <c r="AQ16" s="34">
+        <f>AP102/AH107</f>
+        <v>45.855630206686008</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -5621,16 +5809,16 @@
         <v>228405000</v>
       </c>
       <c r="AN18" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AO18" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP18" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ18" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="AP18" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="AQ18" s="19" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -5736,36 +5924,36 @@
       <c r="AH19" s="10">
         <v>1351775000</v>
       </c>
-      <c r="AI19" s="60">
-        <v>2139000000</v>
-      </c>
-      <c r="AJ19" s="60">
-        <v>2456000000</v>
-      </c>
-      <c r="AK19" s="60">
-        <v>2851000000</v>
-      </c>
-      <c r="AL19" s="60">
-        <v>3452000000</v>
-      </c>
-      <c r="AM19" s="60">
-        <v>4089000000</v>
+      <c r="AI19" s="37">
+        <v>2161000000</v>
+      </c>
+      <c r="AJ19" s="37">
+        <v>2478000000</v>
+      </c>
+      <c r="AK19" s="37">
+        <v>2867000000</v>
+      </c>
+      <c r="AL19" s="37">
+        <v>3487000000</v>
+      </c>
+      <c r="AM19" s="37">
+        <v>4119000000</v>
       </c>
       <c r="AN19" s="26">
         <f>AH40-AH56-AH61</f>
         <v>909150000</v>
       </c>
-      <c r="AO19" s="56">
-        <f>AP101/AI3</f>
-        <v>11.160029319793459</v>
-      </c>
-      <c r="AP19" s="56">
-        <f>AP101/AI28</f>
-        <v>38.503426572446557</v>
-      </c>
-      <c r="AQ19" s="57">
-        <f>AP101/AI105</f>
-        <v>49.022093752336687</v>
+      <c r="AO19" s="33">
+        <f>AP102/AI3</f>
+        <v>12.591943461380021</v>
+      </c>
+      <c r="AP19" s="33">
+        <f>AP102/AI28</f>
+        <v>42.62676502382336</v>
+      </c>
+      <c r="AQ19" s="34">
+        <f>AP102/AI107</f>
+        <v>39.891605549755305</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5903,23 +6091,23 @@
       </c>
       <c r="AI20" s="16">
         <f t="shared" si="3"/>
-        <v>0.58236392890828714</v>
+        <v>0.59863882672782087</v>
       </c>
       <c r="AJ20" s="16">
         <f t="shared" si="3"/>
-        <v>0.14820009350163632</v>
+        <v>0.1466913465987969</v>
       </c>
       <c r="AK20" s="16">
         <f t="shared" si="3"/>
-        <v>0.16083061889250816</v>
+        <v>0.15698143664245356</v>
       </c>
       <c r="AL20" s="16">
         <f t="shared" si="3"/>
-        <v>0.21080322693791653</v>
+        <v>0.21625392396233001</v>
       </c>
       <c r="AM20" s="16">
         <f t="shared" si="3"/>
-        <v>0.18453070683661643</v>
+        <v>0.18124462288500154</v>
       </c>
     </row>
     <row r="21" spans="1:43" ht="20" x14ac:dyDescent="0.25">
@@ -6025,31 +6213,34 @@
       <c r="AH21" s="2">
         <v>0.26600000000000001</v>
       </c>
-      <c r="AI21" s="61">
+      <c r="AI21" s="38">
         <f>AI19/AI3</f>
-        <v>0.36815834767641997</v>
-      </c>
-      <c r="AJ21" s="61">
+        <v>0.37092344661860627</v>
+      </c>
+      <c r="AJ21" s="38">
         <f t="shared" ref="AJ21:AM21" si="4">AJ19/AJ3</f>
-        <v>0.37599510104102879</v>
-      </c>
-      <c r="AK21" s="61">
+        <v>0.37774390243902439</v>
+      </c>
+      <c r="AK21" s="38">
         <f t="shared" si="4"/>
-        <v>0.38657627118644067</v>
-      </c>
-      <c r="AL21" s="61">
+        <v>0.3887457627118644</v>
+      </c>
+      <c r="AL21" s="38">
         <f t="shared" si="4"/>
-        <v>0.4115893644926672</v>
-      </c>
-      <c r="AM21" s="61">
+        <v>0.41373991457047937</v>
+      </c>
+      <c r="AM21" s="38">
         <f t="shared" si="4"/>
-        <v>0.43662573411639083</v>
+        <v>0.43875159778440564</v>
+      </c>
+      <c r="AO21" s="49" t="s">
+        <v>167</v>
       </c>
       <c r="AP21" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AQ21" s="19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -6155,13 +6346,17 @@
       <c r="AH22" s="10">
         <v>1162038000</v>
       </c>
-      <c r="AP22" s="58">
-        <f>AH98/AP101</f>
+      <c r="AO22" s="17">
+        <f>SUM(AI29:AM29)/5</f>
+        <v>0.27707427260918605</v>
+      </c>
+      <c r="AP22" s="35">
+        <f>AH98/AP102</f>
         <v>0</v>
       </c>
-      <c r="AQ22" s="59">
-        <f>AH107/AP101</f>
-        <v>2.4673406327839452E-2</v>
+      <c r="AQ22" s="36">
+        <f>AI107/AP102</f>
+        <v>2.5067930613941761E-2</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -6787,20 +6982,20 @@
       <c r="AH28" s="11">
         <v>984594000</v>
       </c>
-      <c r="AI28" s="62">
-        <v>1684000000</v>
-      </c>
-      <c r="AJ28" s="62">
-        <v>1933000000</v>
-      </c>
-      <c r="AK28" s="62">
-        <v>2242000000</v>
-      </c>
-      <c r="AL28" s="62">
-        <v>2419000000</v>
-      </c>
-      <c r="AM28" s="62">
-        <v>2781000000</v>
+      <c r="AI28" s="39">
+        <v>1721000000</v>
+      </c>
+      <c r="AJ28" s="39">
+        <v>1982000000</v>
+      </c>
+      <c r="AK28" s="39">
+        <v>2299000000</v>
+      </c>
+      <c r="AL28" s="39">
+        <v>2692000000</v>
+      </c>
+      <c r="AM28" s="39">
+        <v>3109000000</v>
       </c>
     </row>
     <row r="29" spans="1:43" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6938,23 +7133,23 @@
       </c>
       <c r="AI29" s="16">
         <f t="shared" si="5"/>
-        <v>0.71034964665638833</v>
+        <v>0.74792858782401672</v>
       </c>
       <c r="AJ29" s="16">
         <f t="shared" si="5"/>
-        <v>0.14786223277909749</v>
+        <v>0.15165601394538064</v>
       </c>
       <c r="AK29" s="16">
         <f t="shared" si="5"/>
-        <v>0.15985514743921359</v>
+        <v>0.15993945509586283</v>
       </c>
       <c r="AL29" s="16">
         <f t="shared" si="5"/>
-        <v>7.8947368421052655E-2</v>
+        <v>0.17094388864723786</v>
       </c>
       <c r="AM29" s="16">
         <f t="shared" si="5"/>
-        <v>0.14964861513021921</v>
+        <v>0.15490341753343229</v>
       </c>
     </row>
     <row r="30" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -7060,25 +7255,25 @@
       <c r="AH30" s="2">
         <v>0.1938</v>
       </c>
-      <c r="AI30" s="63">
+      <c r="AI30" s="40">
         <f>AI28/AI3</f>
-        <v>0.28984509466437175</v>
-      </c>
-      <c r="AJ30" s="63">
+        <v>0.29539993134225884</v>
+      </c>
+      <c r="AJ30" s="40">
         <f t="shared" ref="AJ30:AM30" si="6">AJ28/AJ3</f>
-        <v>0.29592774035517455</v>
-      </c>
-      <c r="AK30" s="63">
+        <v>0.30213414634146341</v>
+      </c>
+      <c r="AK30" s="40">
         <f t="shared" si="6"/>
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="AL30" s="63">
+        <v>0.31172881355932203</v>
+      </c>
+      <c r="AL30" s="40">
         <f t="shared" si="6"/>
-        <v>0.28842255872183142</v>
-      </c>
-      <c r="AM30" s="63">
+        <v>0.31941148552444232</v>
+      </c>
+      <c r="AM30" s="40">
         <f t="shared" si="6"/>
-        <v>0.29695675387079551</v>
+        <v>0.33116744780570939</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -7184,19 +7379,19 @@
       <c r="AH31" s="12">
         <v>6.39</v>
       </c>
-      <c r="AI31" s="64">
+      <c r="AI31" s="41">
         <v>11.07</v>
       </c>
-      <c r="AJ31" s="64">
+      <c r="AJ31" s="41">
         <v>12.7</v>
       </c>
-      <c r="AK31" s="64">
+      <c r="AK31" s="41">
         <v>14.73</v>
       </c>
-      <c r="AL31" s="64">
+      <c r="AL31" s="41">
         <v>15.9</v>
       </c>
-      <c r="AM31" s="64">
+      <c r="AM31" s="41">
         <v>18.28</v>
       </c>
     </row>
@@ -12567,7 +12762,7 @@
         <v>-251390000</v>
       </c>
     </row>
-    <row r="83" spans="1:42" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -12670,12 +12865,8 @@
       <c r="AH83" s="1">
         <v>1320000</v>
       </c>
-      <c r="AO83" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP83" s="31"/>
     </row>
-    <row r="84" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -12778,12 +12969,18 @@
       <c r="AH84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AO84" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP84" s="32"/>
+      <c r="AI84" s="52"/>
+      <c r="AJ84" s="52"/>
+      <c r="AK84" s="52"/>
+      <c r="AL84" s="52"/>
+      <c r="AM84" s="52"/>
+      <c r="AN84" s="52"/>
+      <c r="AO84" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP84" s="75"/>
     </row>
-    <row r="85" spans="1:42" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -12886,13 +13083,16 @@
       <c r="AH85" s="1">
         <v>415895000</v>
       </c>
-      <c r="AO85" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP85" s="34">
-        <f>AH17</f>
-        <v>1698000</v>
-      </c>
+      <c r="AI85" s="52"/>
+      <c r="AJ85" s="52"/>
+      <c r="AK85" s="52"/>
+      <c r="AL85" s="52"/>
+      <c r="AM85" s="52"/>
+      <c r="AN85" s="52"/>
+      <c r="AO85" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP85" s="78"/>
     </row>
     <row r="86" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -12997,12 +13197,18 @@
       <c r="AH86" s="1">
         <v>169278000</v>
       </c>
-      <c r="AO86" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP86" s="34">
-        <f>AH56</f>
-        <v>54274000</v>
+      <c r="AI86" s="52"/>
+      <c r="AJ86" s="52"/>
+      <c r="AK86" s="52"/>
+      <c r="AL86" s="52"/>
+      <c r="AM86" s="52"/>
+      <c r="AN86" s="52"/>
+      <c r="AO86" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP86" s="53">
+        <f>AH17</f>
+        <v>1698000</v>
       </c>
     </row>
     <row r="87" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13108,12 +13314,18 @@
       <c r="AH87" s="10">
         <v>1738900000</v>
       </c>
-      <c r="AO87" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP87" s="34">
-        <f>AH61</f>
-        <v>602097000</v>
+      <c r="AI87" s="52"/>
+      <c r="AJ87" s="52"/>
+      <c r="AK87" s="52"/>
+      <c r="AL87" s="52"/>
+      <c r="AM87" s="52"/>
+      <c r="AN87" s="52"/>
+      <c r="AO87" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP87" s="53">
+        <f>AH56</f>
+        <v>54274000</v>
       </c>
     </row>
     <row r="88" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13219,12 +13431,18 @@
       <c r="AH88" s="1">
         <v>-136589000</v>
       </c>
-      <c r="AO88" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP88" s="36">
-        <f>AP85/(AP86+AP87)</f>
-        <v>2.5869515868312282E-3</v>
+      <c r="AI88" s="52"/>
+      <c r="AJ88" s="52"/>
+      <c r="AK88" s="52"/>
+      <c r="AL88" s="52"/>
+      <c r="AM88" s="52"/>
+      <c r="AN88" s="52"/>
+      <c r="AO88" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP88" s="53">
+        <f>AH61</f>
+        <v>602097000</v>
       </c>
     </row>
     <row r="89" spans="1:42" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13363,12 +13581,18 @@
         <f t="shared" si="9"/>
         <v>2.6879439351283528E-2</v>
       </c>
-      <c r="AO89" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP89" s="34">
-        <f>AH27</f>
-        <v>137078000</v>
+      <c r="AI89" s="52"/>
+      <c r="AJ89" s="52"/>
+      <c r="AK89" s="52"/>
+      <c r="AL89" s="52"/>
+      <c r="AM89" s="52"/>
+      <c r="AN89" s="52"/>
+      <c r="AO89" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP89" s="54">
+        <f>AP86/(AP87+AP88)</f>
+        <v>2.5869515868312282E-3</v>
       </c>
     </row>
     <row r="90" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13474,12 +13698,18 @@
       <c r="AH90" s="1">
         <v>-422374000</v>
       </c>
-      <c r="AO90" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP90" s="34">
-        <f>AH25</f>
-        <v>1115514000</v>
+      <c r="AI90" s="52"/>
+      <c r="AJ90" s="52"/>
+      <c r="AK90" s="52"/>
+      <c r="AL90" s="52"/>
+      <c r="AM90" s="52"/>
+      <c r="AN90" s="52"/>
+      <c r="AO90" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP90" s="53">
+        <f>AH27</f>
+        <v>137078000</v>
       </c>
     </row>
     <row r="91" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13585,12 +13815,18 @@
       <c r="AH91" s="1">
         <v>-104245000</v>
       </c>
-      <c r="AO91" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP91" s="36">
-        <f>AP89/AP90</f>
-        <v>0.12288326278289649</v>
+      <c r="AI91" s="52"/>
+      <c r="AJ91" s="52"/>
+      <c r="AK91" s="52"/>
+      <c r="AL91" s="52"/>
+      <c r="AM91" s="52"/>
+      <c r="AN91" s="52"/>
+      <c r="AO91" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP91" s="53">
+        <f>AH25</f>
+        <v>1115514000</v>
       </c>
     </row>
     <row r="92" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13696,15 +13932,21 @@
       <c r="AH92" s="1">
         <v>94278000</v>
       </c>
-      <c r="AO92" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP92" s="36">
-        <f>AP88*(1-AP91)</f>
-        <v>2.2690585351800153E-3</v>
+      <c r="AI92" s="52"/>
+      <c r="AJ92" s="52"/>
+      <c r="AK92" s="52"/>
+      <c r="AL92" s="52"/>
+      <c r="AM92" s="52"/>
+      <c r="AN92" s="52"/>
+      <c r="AO92" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP92" s="54">
+        <f>AP90/AP91</f>
+        <v>0.12288326278289649</v>
       </c>
     </row>
-    <row r="93" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -13807,12 +14049,21 @@
       <c r="AH93" s="1">
         <v>-3693000</v>
       </c>
-      <c r="AO93" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="AP93" s="32"/>
+      <c r="AI93" s="52"/>
+      <c r="AJ93" s="52"/>
+      <c r="AK93" s="52"/>
+      <c r="AL93" s="52"/>
+      <c r="AM93" s="52"/>
+      <c r="AN93" s="52"/>
+      <c r="AO93" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP93" s="54">
+        <f>AP89*(1-AP92)</f>
+        <v>2.2690585351800153E-3</v>
+      </c>
     </row>
-    <row r="94" spans="1:42" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -13915,13 +14166,16 @@
       <c r="AH94" s="10">
         <v>-572623000</v>
       </c>
-      <c r="AO94" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP94" s="66">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="AI94" s="52"/>
+      <c r="AJ94" s="52"/>
+      <c r="AK94" s="52"/>
+      <c r="AL94" s="52"/>
+      <c r="AM94" s="52"/>
+      <c r="AN94" s="52"/>
+      <c r="AO94" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP94" s="78"/>
     </row>
     <row r="95" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -14026,12 +14280,18 @@
       <c r="AH95" s="1">
         <v>-76838000</v>
       </c>
-      <c r="AO95" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP95" s="39" cm="1">
-        <f t="array" ref="AP95">_FV(A1,"Beta")</f>
-        <v>1.1374</v>
+      <c r="AI95" s="52"/>
+      <c r="AJ95" s="52"/>
+      <c r="AK95" s="52"/>
+      <c r="AL95" s="52"/>
+      <c r="AM95" s="52"/>
+      <c r="AN95" s="52"/>
+      <c r="AO95" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP95" s="55">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14137,11 +14397,18 @@
       <c r="AH96" s="1">
         <v>237956000</v>
       </c>
-      <c r="AO96" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP96" s="37">
-        <v>8.4000000000000005E-2</v>
+      <c r="AI96" s="52"/>
+      <c r="AJ96" s="52"/>
+      <c r="AK96" s="52"/>
+      <c r="AL96" s="52"/>
+      <c r="AM96" s="52"/>
+      <c r="AN96" s="52"/>
+      <c r="AO96" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP96" s="56" cm="1">
+        <f t="array" ref="AP96">_FV(A1,"Beta")</f>
+        <v>1.0820000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14247,15 +14514,20 @@
       <c r="AH97" s="1">
         <v>-1100000000</v>
       </c>
-      <c r="AO97" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP97" s="36">
-        <f>(AP94)+((AP95)*(AP96-AP94))</f>
-        <v>9.0166512000000004E-2</v>
+      <c r="AI97" s="52"/>
+      <c r="AJ97" s="52"/>
+      <c r="AK97" s="52"/>
+      <c r="AL97" s="52"/>
+      <c r="AM97" s="52"/>
+      <c r="AN97" s="52"/>
+      <c r="AO97" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP97" s="57">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -14358,12 +14630,21 @@
       <c r="AH98" s="1">
         <v>0</v>
       </c>
-      <c r="AO98" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP98" s="32"/>
+      <c r="AI98" s="52"/>
+      <c r="AJ98" s="52"/>
+      <c r="AK98" s="52"/>
+      <c r="AL98" s="52"/>
+      <c r="AM98" s="52"/>
+      <c r="AN98" s="52"/>
+      <c r="AO98" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP98" s="54">
+        <f>(AP95)+((AP96)*(AP97-AP95))</f>
+        <v>8.6868360000000006E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:42" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -14466,13 +14747,16 @@
       <c r="AH99" s="1">
         <v>-177418000</v>
       </c>
-      <c r="AO99" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP99" s="34">
-        <f>AP86+AP87</f>
-        <v>656371000</v>
-      </c>
+      <c r="AI99" s="52"/>
+      <c r="AJ99" s="52"/>
+      <c r="AK99" s="52"/>
+      <c r="AL99" s="52"/>
+      <c r="AM99" s="52"/>
+      <c r="AN99" s="52"/>
+      <c r="AO99" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP99" s="78"/>
     </row>
     <row r="100" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -14577,12 +14861,18 @@
       <c r="AH100" s="10">
         <v>-1116300000</v>
       </c>
-      <c r="AO100" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP100" s="36">
-        <f>AP99/AP103</f>
-        <v>1.0021521672742681E-2</v>
+      <c r="AI100" s="52"/>
+      <c r="AJ100" s="52"/>
+      <c r="AK100" s="52"/>
+      <c r="AL100" s="52"/>
+      <c r="AM100" s="52"/>
+      <c r="AN100" s="52"/>
+      <c r="AO100" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP100" s="53">
+        <f>AP87+AP88</f>
+        <v>656371000</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14688,12 +14978,18 @@
       <c r="AH101" s="1">
         <v>-65296000</v>
       </c>
-      <c r="AO101" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP101" s="40" cm="1">
-        <f t="array" ref="AP101">_FV(A1,"Market cap",TRUE)</f>
-        <v>64839770348</v>
+      <c r="AI101" s="52"/>
+      <c r="AJ101" s="52"/>
+      <c r="AK101" s="52"/>
+      <c r="AL101" s="52"/>
+      <c r="AM101" s="52"/>
+      <c r="AN101" s="52"/>
+      <c r="AO101" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP101" s="54">
+        <f>AP100/AP104</f>
+        <v>8.8678371453512692E-3</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14799,12 +15095,18 @@
       <c r="AH102" s="10">
         <v>-15319000</v>
       </c>
-      <c r="AO102" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP102" s="36">
-        <f>AP101/AP103</f>
-        <v>0.98997847832725727</v>
+      <c r="AI102" s="52"/>
+      <c r="AJ102" s="52"/>
+      <c r="AK102" s="52"/>
+      <c r="AL102" s="52"/>
+      <c r="AM102" s="52"/>
+      <c r="AN102" s="52"/>
+      <c r="AO102" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP102" s="58" cm="1">
+        <f t="array" ref="AP102">_FV(A1,"Market cap",TRUE)</f>
+        <v>73360662606</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14910,15 +15212,21 @@
       <c r="AH103" s="1">
         <v>1435183000</v>
       </c>
-      <c r="AO103" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP103" s="41">
-        <f>AP99+AP101</f>
-        <v>65496141348</v>
+      <c r="AI103" s="52"/>
+      <c r="AJ103" s="52"/>
+      <c r="AK103" s="52"/>
+      <c r="AL103" s="52"/>
+      <c r="AM103" s="52"/>
+      <c r="AN103" s="52"/>
+      <c r="AO103" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP103" s="54">
+        <f>AP102/AP104</f>
+        <v>0.99113216285464878</v>
       </c>
     </row>
-    <row r="104" spans="1:42" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:42" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -15021,17 +15329,28 @@
       <c r="AH104" s="11">
         <v>1419864000</v>
       </c>
-      <c r="AO104" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP104" s="32"/>
+      <c r="AI104" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ104" s="76"/>
+      <c r="AK104" s="76"/>
+      <c r="AL104" s="76"/>
+      <c r="AM104" s="76"/>
+      <c r="AN104" s="52"/>
+      <c r="AO104" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP104" s="59">
+        <f>AP100+AP102</f>
+        <v>74017033606</v>
+      </c>
     </row>
-    <row r="105" spans="1:42" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:42" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:AG105" si="10">(B22*(1-$AP$91))+B77+B88-B81</f>
+        <f t="shared" ref="B105:AH105" si="10">(B22*(1-$AP$92))+B77+B88-B81</f>
         <v>4373295.3598072277</v>
       </c>
       <c r="C105" s="1">
@@ -15159,202 +15478,205 @@
         <v>624227607.33975542</v>
       </c>
       <c r="AH105" s="1">
-        <f>(AH22*(1-$AP$91))+AH77+AH88-AH81</f>
+        <f t="shared" si="10"/>
         <v>1170393979.0822885</v>
       </c>
-      <c r="AI105" s="27">
-        <f>AH105*(1+$AP$106)</f>
-        <v>1322664239.4259088</v>
-      </c>
-      <c r="AJ105" s="27">
-        <f t="shared" ref="AJ105:AM105" si="11">AI105*(1+$AP$106)</f>
-        <v>1494745121.3204827</v>
-      </c>
-      <c r="AK105" s="27">
-        <f t="shared" si="11"/>
-        <v>1689214020.5447359</v>
-      </c>
-      <c r="AL105" s="27">
-        <f t="shared" si="11"/>
-        <v>1908983656.4805989</v>
-      </c>
-      <c r="AM105" s="27">
-        <f t="shared" si="11"/>
-        <v>2157345698.288044</v>
-      </c>
-      <c r="AN105" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO105" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP105" s="43">
-        <f>(AP100*AP92)+(AP102*AP97)</f>
-        <v>8.928564576512342E-2</v>
-      </c>
+      <c r="AI105" s="50">
+        <f>AI107/AI3</f>
+        <v>0.315653964984552</v>
+      </c>
+      <c r="AJ105" s="50">
+        <f>AJ107/AJ3</f>
+        <v>0.32301829268292681</v>
+      </c>
+      <c r="AK105" s="50">
+        <f>AK107/AK3</f>
+        <v>0.33708474576271186</v>
+      </c>
+      <c r="AL105" s="50">
+        <f>AL107/AL3</f>
+        <v>0.37494067394399622</v>
+      </c>
+      <c r="AM105" s="50">
+        <f>AM107/AM3</f>
+        <v>0.38730293992330633</v>
+      </c>
+      <c r="AN105" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO105" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP105" s="78"/>
     </row>
-    <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:AH106" si="11">(C107/B107)-1</f>
         <v>-0.55102040816326525</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="11"/>
         <v>4.9090909090909092</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="11"/>
         <v>1.8846153846153846</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.1253333333333333</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.32227488151658767</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="11"/>
         <v>-0.12186379928315416</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.12448979591836729</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="11"/>
         <v>1.0889292196007316E-2</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.99281867145421909</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="11"/>
         <v>-0.25572072072072072</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="11"/>
         <v>1.5822913514494945</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="11"/>
         <v>-2.0771927850901863</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="11"/>
         <v>-2.4855529059546395</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="11"/>
         <v>-0.35840368380660015</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="11"/>
         <v>3.0109755652142134E-2</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="11"/>
         <v>-0.31531687253741791</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="11"/>
         <v>1.4998802457228302</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="11"/>
         <v>-0.25076840614310614</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="11"/>
         <v>-0.31877862067773766</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.5167370172697201</v>
       </c>
       <c r="W106" s="15">
-        <f>(W107/V107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.27135646455557749</v>
       </c>
       <c r="X106" s="15">
-        <f>(X107/W107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.12757375962282214</v>
       </c>
       <c r="Y106" s="15">
-        <f>(Y107/X107)-1</f>
+        <f t="shared" si="11"/>
         <v>-2.1886484279297624E-3</v>
       </c>
       <c r="Z106" s="15">
-        <f>(Z107/Y107)-1</f>
+        <f t="shared" si="11"/>
         <v>3.8357298362863723E-2</v>
       </c>
       <c r="AA106" s="15">
-        <f>(AA107/Z107)-1</f>
+        <f t="shared" si="11"/>
         <v>-8.9016755247275037E-2</v>
       </c>
       <c r="AB106" s="15">
-        <f>(AB107/AA107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.27460674935045359</v>
       </c>
       <c r="AC106" s="15">
-        <f>(AC107/AB107)-1</f>
+        <f t="shared" si="11"/>
         <v>8.8084640076028675E-2</v>
       </c>
       <c r="AD106" s="15">
-        <f>(AD107/AC107)-1</f>
+        <f t="shared" si="11"/>
         <v>-0.4254907657782111</v>
       </c>
       <c r="AE106" s="15">
-        <f>(AE107/AD107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.85576750044988303</v>
       </c>
       <c r="AF106" s="15">
-        <f>(AF107/AE107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.39193479623824445</v>
       </c>
       <c r="AG106" s="15">
-        <f>(AG107/AF107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.67783355013686841</v>
       </c>
       <c r="AH106" s="15">
-        <f>(AH107/AG107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.14527784021842938</v>
       </c>
-      <c r="AI106" s="67">
-        <v>1805000000</v>
-      </c>
-      <c r="AJ106" s="67">
-        <v>2128000000</v>
-      </c>
-      <c r="AK106" s="67">
-        <v>2492000000</v>
-      </c>
-      <c r="AL106" s="67">
-        <v>3027000000</v>
-      </c>
-      <c r="AM106" s="67">
-        <v>3547000000</v>
-      </c>
-      <c r="AN106" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO106" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP106" s="45">
-        <f>(SUM(AI4:AM4)/5)</f>
-        <v>0.13010171195772574</v>
+      <c r="AI106" s="45">
+        <f>(AI107/AH107)-1</f>
+        <v>0.1495057562797768</v>
+      </c>
+      <c r="AJ106" s="45">
+        <f>(AJ107/AI107)-1</f>
+        <v>0.15225666122892867</v>
+      </c>
+      <c r="AK106" s="45">
+        <f>(AK107/AJ107)-1</f>
+        <v>0.17319490325625297</v>
+      </c>
+      <c r="AL106" s="45">
+        <f>(AL107/AK107)-1</f>
+        <v>0.27111826226870472</v>
+      </c>
+      <c r="AM106" s="45">
+        <f>(AM107/AL107)-1</f>
+        <v>0.15063291139240498</v>
+      </c>
+      <c r="AN106" s="46">
+        <f>SUM(AI106:AM106)/5</f>
+        <v>0.17934169888521362</v>
+      </c>
+      <c r="AO106" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP106" s="60">
+        <f>(AP101*AP93)+(AP103*AP98)</f>
+        <v>8.6118147171999504E-2</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="65" t="s">
-        <v>164</v>
+      <c r="A107" s="42" t="s">
+        <v>161</v>
       </c>
       <c r="B107" s="1">
         <v>4900000</v>
@@ -15455,151 +15777,239 @@
       <c r="AH107" s="1">
         <v>1599818000</v>
       </c>
-      <c r="AI107" s="28"/>
-      <c r="AJ107" s="28"/>
-      <c r="AK107" s="28"/>
-      <c r="AL107" s="28"/>
-      <c r="AM107" s="69">
-        <f>AM106*(1+AP107)/(AP108-AP107)</f>
-        <v>56555004725.058624</v>
-      </c>
-      <c r="AN107" s="29" t="s">
+      <c r="AI107" s="61">
+        <v>1839000000</v>
+      </c>
+      <c r="AJ107" s="61">
+        <v>2119000000</v>
+      </c>
+      <c r="AK107" s="61">
+        <v>2486000000</v>
+      </c>
+      <c r="AL107" s="61">
+        <v>3160000000</v>
+      </c>
+      <c r="AM107" s="61">
+        <v>3636000000</v>
+      </c>
+      <c r="AN107" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO107" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP107" s="31">
+        <f>(SUM(AI4:AM4)/5)</f>
+        <v>0.13068256580561441</v>
+      </c>
+    </row>
+    <row r="108" spans="1:42" ht="19" x14ac:dyDescent="0.2">
+      <c r="AI108" s="63"/>
+      <c r="AJ108" s="63"/>
+      <c r="AK108" s="63"/>
+      <c r="AL108" s="63"/>
+      <c r="AM108" s="64">
+        <f>AM107*(1+AP108)/(AP109-AP108)</f>
+        <v>60978615557.695297</v>
+      </c>
+      <c r="AN108" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO108" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP108" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.2">
+      <c r="AI109" s="64">
+        <f t="shared" ref="AI109:AK109" si="12">AI108+AI107</f>
+        <v>1839000000</v>
+      </c>
+      <c r="AJ109" s="64">
+        <f t="shared" si="12"/>
+        <v>2119000000</v>
+      </c>
+      <c r="AK109" s="64">
+        <f t="shared" si="12"/>
+        <v>2486000000</v>
+      </c>
+      <c r="AL109" s="64">
+        <f>AL108+AL107</f>
+        <v>3160000000</v>
+      </c>
+      <c r="AM109" s="64">
+        <f>AM108+AM107</f>
+        <v>64614615557.695297</v>
+      </c>
+      <c r="AN109" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO109" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="AO107" s="46" t="s">
+      <c r="AP109" s="31">
+        <f>AP106</f>
+        <v>8.6118147171999504E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:42" ht="19" x14ac:dyDescent="0.2">
+      <c r="AI110" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="AP107" s="47">
-        <v>2.5000000000000001E-2</v>
-      </c>
+      <c r="AJ110" s="77"/>
+      <c r="AK110" s="52"/>
+      <c r="AL110" s="52"/>
+      <c r="AM110" s="52"/>
+      <c r="AN110" s="52"/>
+      <c r="AO110" s="52"/>
+      <c r="AP110" s="52"/>
     </row>
-    <row r="108" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="AI108" s="69">
-        <f t="shared" ref="AI108:AK108" si="12">AI107+AI106</f>
-        <v>1805000000</v>
-      </c>
-      <c r="AJ108" s="69">
-        <f t="shared" si="12"/>
-        <v>2128000000</v>
-      </c>
-      <c r="AK108" s="69">
-        <f t="shared" si="12"/>
-        <v>2492000000</v>
-      </c>
-      <c r="AL108" s="69">
-        <f>AL107+AL106</f>
-        <v>3027000000</v>
-      </c>
-      <c r="AM108" s="69">
-        <f>AM107+AM106</f>
-        <v>60102004725.058624</v>
-      </c>
-      <c r="AN108" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO108" s="48" t="s">
+    <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="AI111" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="AP108" s="45">
-        <f>AP105</f>
-        <v>8.928564576512342E-2</v>
-      </c>
+      <c r="AJ111" s="58">
+        <f>NPV(AP109,AI109,AJ109,AK109,AL109,AM109)</f>
+        <v>50451496634.084671</v>
+      </c>
+      <c r="AK111" s="52"/>
+      <c r="AL111" s="52"/>
+      <c r="AM111" s="52"/>
+      <c r="AN111" s="52"/>
+      <c r="AO111" s="52"/>
+      <c r="AP111" s="52"/>
     </row>
-    <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="AI109" s="49" t="s">
+    <row r="112" spans="1:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="AI112" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="AJ109" s="49"/>
-    </row>
-    <row r="110" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI110" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ110" s="40">
-        <f>NPV(AP108,AI108,AJ108,AK108,AL108,AM108)</f>
-        <v>46719030056.742203</v>
-      </c>
-    </row>
-    <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI111" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ111" s="40">
+      <c r="AJ112" s="58">
         <f>AH40</f>
         <v>1565521000</v>
       </c>
+      <c r="AK112" s="52"/>
+      <c r="AL112" s="52"/>
+      <c r="AM112" s="52"/>
+      <c r="AN112" s="52"/>
+      <c r="AO112" s="52"/>
+      <c r="AP112" s="52"/>
     </row>
-    <row r="112" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI112" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ112" s="40">
-        <f>AP99</f>
+    <row r="113" spans="35:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="AI113" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ113" s="58">
+        <f>AP100</f>
         <v>656371000</v>
       </c>
+      <c r="AK113" s="52"/>
+      <c r="AL113" s="52"/>
+      <c r="AM113" s="52"/>
+      <c r="AN113" s="52"/>
+      <c r="AO113" s="52"/>
+      <c r="AP113" s="52"/>
     </row>
-    <row r="113" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI113" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ113" s="40">
-        <f>AJ110+AJ111-AJ112</f>
-        <v>47628180056.742203</v>
-      </c>
+    <row r="114" spans="35:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="AI114" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ114" s="58">
+        <f>AJ111+AJ112-AJ113</f>
+        <v>51360646634.084671</v>
+      </c>
+      <c r="AK114" s="52"/>
+      <c r="AL114" s="52"/>
+      <c r="AM114" s="52"/>
+      <c r="AN114" s="52"/>
+      <c r="AO114" s="52"/>
+      <c r="AP114" s="52"/>
     </row>
-    <row r="114" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI114" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="AJ114" s="50">
+    <row r="115" spans="35:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="AI115" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ115" s="68">
         <f>AH34*(1+(5*AN16))</f>
         <v>158132045.63753816</v>
       </c>
+      <c r="AK115" s="52"/>
+      <c r="AL115" s="52"/>
+      <c r="AM115" s="52"/>
+      <c r="AN115" s="52"/>
+      <c r="AO115" s="52"/>
+      <c r="AP115" s="52"/>
     </row>
-    <row r="115" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI115" s="51" t="s">
+    <row r="116" spans="35:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="AI116" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ116" s="70">
+        <f>AJ114/AJ115</f>
+        <v>324.79594143625263</v>
+      </c>
+      <c r="AK116" s="52"/>
+      <c r="AL116" s="52"/>
+      <c r="AM116" s="52"/>
+      <c r="AN116" s="52"/>
+      <c r="AO116" s="52"/>
+      <c r="AP116" s="52"/>
+    </row>
+    <row r="117" spans="35:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="AI117" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ117" s="71" cm="1">
+        <f t="array" ref="AJ117">_FV(A1,"Price")</f>
+        <v>482.37</v>
+      </c>
+      <c r="AK117" s="52"/>
+      <c r="AL117" s="52"/>
+      <c r="AM117" s="52"/>
+      <c r="AN117" s="52"/>
+      <c r="AO117" s="52"/>
+      <c r="AP117" s="52"/>
+    </row>
+    <row r="118" spans="35:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="AI118" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AJ115" s="52">
-        <f>AJ113/AJ114</f>
-        <v>301.19246143133427</v>
-      </c>
+      <c r="AJ118" s="72">
+        <f>AJ116/AJ117-1</f>
+        <v>-0.32666637345553695</v>
+      </c>
+      <c r="AK118" s="52"/>
+      <c r="AL118" s="52"/>
+      <c r="AM118" s="52"/>
+      <c r="AN118" s="52"/>
+      <c r="AO118" s="52"/>
+      <c r="AP118" s="52"/>
     </row>
-    <row r="116" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI116" s="50" t="s">
+    <row r="119" spans="35:42" ht="20" x14ac:dyDescent="0.2">
+      <c r="AI119" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="AJ116" s="53" cm="1">
-        <f t="array" ref="AJ116">_FV(A1,"Price")</f>
-        <v>426.13</v>
-      </c>
-    </row>
-    <row r="117" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI117" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ117" s="54">
-        <f>AJ115/AJ116-1</f>
-        <v>-0.29319113549542564</v>
-      </c>
-    </row>
-    <row r="118" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI118" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ118" s="55" t="str">
-        <f>IF(AJ115&gt;AJ116,"BUY","SELL")</f>
+      <c r="AJ119" s="73" t="str">
+        <f>IF(AJ116&gt;AJ117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="AK119" s="52"/>
+      <c r="AL119" s="52"/>
+      <c r="AM119" s="52"/>
+      <c r="AN119" s="52"/>
+      <c r="AO119" s="52"/>
+      <c r="AP119" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AI109:AJ109"/>
-    <mergeCell ref="AO83:AP83"/>
+  <mergeCells count="7">
     <mergeCell ref="AO84:AP84"/>
-    <mergeCell ref="AO93:AP93"/>
-    <mergeCell ref="AO98:AP98"/>
-    <mergeCell ref="AO104:AP104"/>
+    <mergeCell ref="AI104:AM104"/>
+    <mergeCell ref="AI110:AJ110"/>
+    <mergeCell ref="AO85:AP85"/>
+    <mergeCell ref="AO94:AP94"/>
+    <mergeCell ref="AO99:AP99"/>
+    <mergeCell ref="AO105:AP105"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/SNPS" display="ROIC.AI | SNPS" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -15670,7 +16080,7 @@
     <hyperlink ref="AH36" r:id="rId66" tooltip="https://www.sec.gov/Archives/edgar/data/883241/000088324122000017/0000883241-22-000017-index.htm" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
     <hyperlink ref="AH74" r:id="rId67" tooltip="https://www.sec.gov/Archives/edgar/data/883241/000088324122000017/0000883241-22-000017-index.htm" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="AI1" r:id="rId68" display="https://finbox.com/NASDAQGS:SNPS/explorer/revenue_proj" xr:uid="{D664F57E-D868-3041-88A2-27A4A29DA87C}"/>
-    <hyperlink ref="AN106" r:id="rId69" xr:uid="{7A5298CD-54F2-9B4E-9E63-193A599E5499}"/>
+    <hyperlink ref="AN107" r:id="rId69" xr:uid="{7A5298CD-54F2-9B4E-9E63-193A599E5499}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId70"/>

--- a/Technology/Software/Synopsys.xlsx
+++ b/Technology/Software/Synopsys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2B8584-CF22-C749-8774-35B5F5FDB6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456E4808-A89C-3A46-B18B-2847010E519A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2836,13 +2836,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2858,14 +2860,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.9530000000000005E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2875,6 +2877,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3002,11 +3006,9 @@
     <v>Powered by Refinitiv</v>
     <v>502.66</v>
     <v>269.88</v>
-    <v>1.0820000000000001</v>
-    <v>-3.36</v>
-    <v>-6.9169999999999995E-3</v>
-    <v>-2.37</v>
-    <v>-4.9129999999999998E-3</v>
+    <v>1.0832999999999999</v>
+    <v>-1.72</v>
+    <v>-3.7780000000000001E-3</v>
     <v>USD</v>
     <v>Synopsys, Inc. offers electronic design automation (EDA) software that it uses to design and test integrated circuits (ICs). The Company provides software and hardware used to validate the electronic systems that incorporate chips and the software that runs on them. It provides technical services and support to help its customers develop advanced chips and electronic systems. These products and services are part of its Design Automation segment. It offers semiconductor intellectual property (IP) products, which are pre-designed circuits that engineers use as components of larger chip designs rather than designing those circuits themselves. These products and services are part of its Design IP segment. It is a provider of software tools and services that improve the security, quality and compliance of software in various industries, such as electronics, financial services, automotive, medicine, energy and industrials. These tools and services are part of its Software Integrity segment.</v>
     <v>19000</v>
@@ -3014,25 +3016,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>675 Almanor Ave, SUNNYVALE, CA, 94085 US</v>
-    <v>492.33</v>
+    <v>460.59</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.993275231252</v>
+    <v>45225.991722024999</v>
     <v>0</v>
-    <v>481.35</v>
-    <v>73360662606</v>
+    <v>448.91</v>
+    <v>68976086652</v>
     <v>SYNOPSYS, INC.</v>
     <v>SYNOPSYS, INC.</v>
-    <v>488.51</v>
-    <v>74.574799999999996</v>
-    <v>485.73</v>
-    <v>482.37</v>
-    <v>480</v>
+    <v>458.42</v>
+    <v>69.632599999999996</v>
+    <v>455.26</v>
+    <v>453.54</v>
     <v>152083800</v>
     <v>SNPS</v>
     <v>SYNOPSYS, INC. (XNAS:SNPS)</v>
-    <v>642481</v>
-    <v>797896</v>
+    <v>47</v>
+    <v>774997</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3064,8 +3065,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3086,7 +3085,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3103,7 +3101,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3114,16 +3112,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3189,19 +3184,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3246,9 +3235,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3256,9 +3242,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -5590,15 +5573,15 @@
       </c>
       <c r="AO16" s="33">
         <f>AP102/AH3</f>
-        <v>14.436693154558203</v>
+        <v>13.57384956219982</v>
       </c>
       <c r="AP16" s="33">
         <f>AP102/AH28</f>
-        <v>74.508541191597757</v>
+        <v>70.055359520777088</v>
       </c>
       <c r="AQ16" s="34">
         <f>AP102/AH107</f>
-        <v>45.855630206686008</v>
+        <v>43.114958484027561</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -5945,15 +5928,15 @@
       </c>
       <c r="AO19" s="33">
         <f>AP102/AI3</f>
-        <v>12.591943461380021</v>
+        <v>11.839355759011328</v>
       </c>
       <c r="AP19" s="33">
         <f>AP102/AI28</f>
-        <v>42.62676502382336</v>
+        <v>40.079074173155142</v>
       </c>
       <c r="AQ19" s="34">
         <f>AP102/AI107</f>
-        <v>39.891605549755305</v>
+        <v>37.507388065252854</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6356,7 +6339,7 @@
       </c>
       <c r="AQ22" s="36">
         <f>AI107/AP102</f>
-        <v>2.5067930613941761E-2</v>
+        <v>2.6661413966236908E-2</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -14291,7 +14274,7 @@
       </c>
       <c r="AP95" s="55">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.9530000000000005E-2</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14408,7 +14391,7 @@
       </c>
       <c r="AP96" s="56" cm="1">
         <f t="array" ref="AP96">_FV(A1,"Beta")</f>
-        <v>1.0820000000000001</v>
+        <v>1.0832999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14641,7 +14624,7 @@
       </c>
       <c r="AP98" s="54">
         <f>(AP95)+((AP96)*(AP97-AP95))</f>
-        <v>8.6868360000000006E-2</v>
+        <v>8.6871350999999999E-2</v>
       </c>
     </row>
     <row r="99" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -14989,7 +14972,7 @@
       </c>
       <c r="AP101" s="54">
         <f>AP100/AP104</f>
-        <v>8.8678371453512692E-3</v>
+        <v>9.4262219392043465E-3</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -15106,7 +15089,7 @@
       </c>
       <c r="AP102" s="58" cm="1">
         <f t="array" ref="AP102">_FV(A1,"Market cap",TRUE)</f>
-        <v>73360662606</v>
+        <v>68976086652</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -15223,7 +15206,7 @@
       </c>
       <c r="AP103" s="54">
         <f>AP102/AP104</f>
-        <v>0.99113216285464878</v>
+        <v>0.99057377806079561</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15342,7 +15325,7 @@
       </c>
       <c r="AP104" s="59">
         <f>AP100+AP102</f>
-        <v>74017033606</v>
+        <v>69632457652</v>
       </c>
     </row>
     <row r="105" spans="1:42" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -15671,7 +15654,7 @@
       </c>
       <c r="AP106" s="60">
         <f>(AP101*AP93)+(AP103*AP98)</f>
-        <v>8.6118147171999504E-2</v>
+        <v>8.607387101466113E-2</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -15810,7 +15793,7 @@
       <c r="AL108" s="63"/>
       <c r="AM108" s="64">
         <f>AM107*(1+AP108)/(AP109-AP108)</f>
-        <v>60978615557.695297</v>
+        <v>61022822658.56926</v>
       </c>
       <c r="AN108" s="65" t="s">
         <v>143</v>
@@ -15841,7 +15824,7 @@
       </c>
       <c r="AM109" s="64">
         <f>AM108+AM107</f>
-        <v>64614615557.695297</v>
+        <v>64658822658.56926</v>
       </c>
       <c r="AN109" s="65" t="s">
         <v>141</v>
@@ -15851,7 +15834,7 @@
       </c>
       <c r="AP109" s="31">
         <f>AP106</f>
-        <v>8.6118147171999504E-2</v>
+        <v>8.607387101466113E-2</v>
       </c>
     </row>
     <row r="110" spans="1:42" ht="19" x14ac:dyDescent="0.2">
@@ -15872,7 +15855,7 @@
       </c>
       <c r="AJ111" s="58">
         <f>NPV(AP109,AI109,AJ109,AK109,AL109,AM109)</f>
-        <v>50451496634.084671</v>
+        <v>50490289303.406876</v>
       </c>
       <c r="AK111" s="52"/>
       <c r="AL111" s="52"/>
@@ -15917,7 +15900,7 @@
       </c>
       <c r="AJ114" s="58">
         <f>AJ111+AJ112-AJ113</f>
-        <v>51360646634.084671</v>
+        <v>51399439303.406876</v>
       </c>
       <c r="AK114" s="52"/>
       <c r="AL114" s="52"/>
@@ -15947,7 +15930,7 @@
       </c>
       <c r="AJ116" s="70">
         <f>AJ114/AJ115</f>
-        <v>324.79594143625263</v>
+        <v>325.04125963956682</v>
       </c>
       <c r="AK116" s="52"/>
       <c r="AL116" s="52"/>
@@ -15962,7 +15945,7 @@
       </c>
       <c r="AJ117" s="71" cm="1">
         <f t="array" ref="AJ117">_FV(A1,"Price")</f>
-        <v>482.37</v>
+        <v>453.54</v>
       </c>
       <c r="AK117" s="52"/>
       <c r="AL117" s="52"/>
@@ -15977,7 +15960,7 @@
       </c>
       <c r="AJ118" s="72">
         <f>AJ116/AJ117-1</f>
-        <v>-0.32666637345553695</v>
+        <v>-0.28332394135122196</v>
       </c>
       <c r="AK118" s="52"/>
       <c r="AL118" s="52"/>

--- a/Technology/Software/Synopsys.xlsx
+++ b/Technology/Software/Synopsys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456E4808-A89C-3A46-B18B-2847010E519A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589C1779-FA5C-FC4C-9269-2FE2DBD47DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2841,13 +2841,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2864,7 +2861,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9530000000000005E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2876,9 +2873,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3004,11 +2998,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>502.66</v>
-    <v>269.88</v>
-    <v>1.0832999999999999</v>
-    <v>-1.72</v>
-    <v>-3.7780000000000001E-3</v>
+    <v>506.9</v>
+    <v>287</v>
+    <v>1.0774999999999999</v>
+    <v>7.14</v>
+    <v>1.4308000000000001E-2</v>
     <v>USD</v>
     <v>Synopsys, Inc. offers electronic design automation (EDA) software that it uses to design and test integrated circuits (ICs). The Company provides software and hardware used to validate the electronic systems that incorporate chips and the software that runs on them. It provides technical services and support to help its customers develop advanced chips and electronic systems. These products and services are part of its Design Automation segment. It offers semiconductor intellectual property (IP) products, which are pre-designed circuits that engineers use as components of larger chip designs rather than designing those circuits themselves. These products and services are part of its Design IP segment. It is a provider of software tools and services that improve the security, quality and compliance of software in various industries, such as electronics, financial services, automotive, medicine, energy and industrials. These tools and services are part of its Software Integrity segment.</v>
     <v>19000</v>
@@ -3016,24 +3010,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>675 Almanor Ave, SUNNYVALE, CA, 94085 US</v>
-    <v>460.59</v>
+    <v>506.9</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45225.991722024999</v>
+    <v>45239.039758228908</v>
     <v>0</v>
-    <v>448.91</v>
-    <v>68976086652</v>
+    <v>499.64</v>
+    <v>76978736208</v>
     <v>SYNOPSYS, INC.</v>
     <v>SYNOPSYS, INC.</v>
-    <v>458.42</v>
-    <v>69.632599999999996</v>
-    <v>455.26</v>
-    <v>453.54</v>
+    <v>500</v>
+    <v>77.711399999999998</v>
+    <v>499.02</v>
+    <v>506.16</v>
     <v>152083800</v>
     <v>SNPS</v>
     <v>SYNOPSYS, INC. (XNAS:SNPS)</v>
-    <v>47</v>
-    <v>774997</v>
+    <v>25</v>
+    <v>759437</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -3603,10 +3597,10 @@
   <dimension ref="A1:AQ119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ83" sqref="AJ83"/>
+      <selection pane="bottomRight" activeCell="AJ99" sqref="AJ99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5573,15 +5567,15 @@
       </c>
       <c r="AO16" s="33">
         <f>AP102/AH3</f>
-        <v>13.57384956219982</v>
+        <v>15.148696243777971</v>
       </c>
       <c r="AP16" s="33">
         <f>AP102/AH28</f>
-        <v>70.055359520777088</v>
+        <v>78.183227003211471</v>
       </c>
       <c r="AQ16" s="34">
         <f>AP102/AH107</f>
-        <v>43.114958484027561</v>
+        <v>48.117183459618531</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -5928,15 +5922,15 @@
       </c>
       <c r="AO19" s="33">
         <f>AP102/AI3</f>
-        <v>11.839355759011328</v>
+        <v>13.21296536354274</v>
       </c>
       <c r="AP19" s="33">
         <f>AP102/AI28</f>
-        <v>40.079074173155142</v>
+        <v>44.7290739151656</v>
       </c>
       <c r="AQ19" s="34">
         <f>AP102/AI107</f>
-        <v>37.507388065252854</v>
+        <v>41.859019145187602</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6339,7 +6333,7 @@
       </c>
       <c r="AQ22" s="36">
         <f>AI107/AP102</f>
-        <v>2.6661413966236908E-2</v>
+        <v>2.3889714102748316E-2</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -14274,7 +14268,7 @@
       </c>
       <c r="AP95" s="55">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9530000000000005E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14391,7 +14385,7 @@
       </c>
       <c r="AP96" s="56" cm="1">
         <f t="array" ref="AP96">_FV(A1,"Beta")</f>
-        <v>1.0832999999999999</v>
+        <v>1.0774999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14624,7 +14618,7 @@
       </c>
       <c r="AP98" s="54">
         <f>(AP95)+((AP96)*(AP97-AP95))</f>
-        <v>8.6871350999999999E-2</v>
+        <v>8.6967475000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -14972,7 +14966,7 @@
       </c>
       <c r="AP101" s="54">
         <f>AP100/AP104</f>
-        <v>9.4262219392043465E-3</v>
+        <v>8.4545642249382186E-3</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -15089,7 +15083,7 @@
       </c>
       <c r="AP102" s="58" cm="1">
         <f t="array" ref="AP102">_FV(A1,"Market cap",TRUE)</f>
-        <v>68976086652</v>
+        <v>76978736208</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -15206,7 +15200,7 @@
       </c>
       <c r="AP103" s="54">
         <f>AP102/AP104</f>
-        <v>0.99057377806079561</v>
+        <v>0.99154543577506182</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15325,7 +15319,7 @@
       </c>
       <c r="AP104" s="59">
         <f>AP100+AP102</f>
-        <v>69632457652</v>
+        <v>77635107208</v>
       </c>
     </row>
     <row r="105" spans="1:42" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -15654,7 +15648,7 @@
       </c>
       <c r="AP106" s="60">
         <f>(AP101*AP93)+(AP103*AP98)</f>
-        <v>8.607387101466113E-2</v>
+        <v>8.625138679824762E-2</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -15793,7 +15787,7 @@
       <c r="AL108" s="63"/>
       <c r="AM108" s="64">
         <f>AM107*(1+AP108)/(AP109-AP108)</f>
-        <v>61022822658.56926</v>
+        <v>60845969288.431274</v>
       </c>
       <c r="AN108" s="65" t="s">
         <v>143</v>
@@ -15824,7 +15818,7 @@
       </c>
       <c r="AM109" s="64">
         <f>AM108+AM107</f>
-        <v>64658822658.56926</v>
+        <v>64481969288.431274</v>
       </c>
       <c r="AN109" s="65" t="s">
         <v>141</v>
@@ -15834,7 +15828,7 @@
       </c>
       <c r="AP109" s="31">
         <f>AP106</f>
-        <v>8.607387101466113E-2</v>
+        <v>8.625138679824762E-2</v>
       </c>
     </row>
     <row r="110" spans="1:42" ht="19" x14ac:dyDescent="0.2">
@@ -15855,7 +15849,7 @@
       </c>
       <c r="AJ111" s="58">
         <f>NPV(AP109,AI109,AJ109,AK109,AL109,AM109)</f>
-        <v>50490289303.406876</v>
+        <v>50335098920.772484</v>
       </c>
       <c r="AK111" s="52"/>
       <c r="AL111" s="52"/>
@@ -15900,7 +15894,7 @@
       </c>
       <c r="AJ114" s="58">
         <f>AJ111+AJ112-AJ113</f>
-        <v>51399439303.406876</v>
+        <v>51244248920.772484</v>
       </c>
       <c r="AK114" s="52"/>
       <c r="AL114" s="52"/>
@@ -15930,7 +15924,7 @@
       </c>
       <c r="AJ116" s="70">
         <f>AJ114/AJ115</f>
-        <v>325.04125963956682</v>
+        <v>324.05986221307614</v>
       </c>
       <c r="AK116" s="52"/>
       <c r="AL116" s="52"/>
@@ -15945,7 +15939,7 @@
       </c>
       <c r="AJ117" s="71" cm="1">
         <f t="array" ref="AJ117">_FV(A1,"Price")</f>
-        <v>453.54</v>
+        <v>506.16</v>
       </c>
       <c r="AK117" s="52"/>
       <c r="AL117" s="52"/>
@@ -15960,7 +15954,7 @@
       </c>
       <c r="AJ118" s="72">
         <f>AJ116/AJ117-1</f>
-        <v>-0.28332394135122196</v>
+        <v>-0.35976793461933754</v>
       </c>
       <c r="AK118" s="52"/>
       <c r="AL118" s="52"/>

--- a/Technology/Software/Synopsys.xlsx
+++ b/Technology/Software/Synopsys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C05344-75B3-4C4E-BF27-BA30A3D4D57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D188C8-CBB1-4C47-83E7-21887053BAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1799,8 +1799,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Charles Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1820,7 +1822,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1833,6 +1835,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1960,11 +1964,11 @@
     <v>Powered by Refinitiv</v>
     <v>564.78</v>
     <v>312.25</v>
-    <v>1.0931999999999999</v>
-    <v>2.73</v>
-    <v>5.0249999999999991E-3</v>
-    <v>1.04</v>
-    <v>1.905E-3</v>
+    <v>1.0933999999999999</v>
+    <v>1.78</v>
+    <v>3.3319999999999999E-3</v>
+    <v>0.33</v>
+    <v>6.1580000000000001E-4</v>
     <v>USD</v>
     <v>Synopsys, Inc. offers electronic design automation (EDA) software that it uses to design and test integrated circuits (ICs). The Company provides software and hardware used to validate the electronic systems that incorporate chips and the software that runs on them. It provides technical services and support to help its customers develop advanced chips and electronic systems. These products and services are part of its Design Automation segment. It offers semiconductor intellectual property (IP) products, which are pre-designed circuits that engineers use as components of larger chip designs rather than designing those circuits themselves. These products and services are part of its Design IP segment. It is a provider of software tools and services that improve the security, quality and compliance of software in various industries, such as electronics, financial services, automotive, medicine, energy and industrials. These tools and services are part of its Software Integrity segment.</v>
     <v>19000</v>
@@ -1972,25 +1976,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>675 Almanor Ave, SUNNYVALE, CA, 94085 US</v>
-    <v>548.19000000000005</v>
+    <v>539.69000000000005</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.036329872659</v>
+    <v>45269.029029803125</v>
     <v>0</v>
-    <v>539.28</v>
-    <v>83014860000</v>
+    <v>531.63</v>
+    <v>81489764290</v>
     <v>SYNOPSYS, INC.</v>
     <v>SYNOPSYS, INC.</v>
-    <v>543.55999999999995</v>
-    <v>69.766800000000003</v>
-    <v>543.23</v>
-    <v>545.96</v>
-    <v>547</v>
+    <v>531.63</v>
+    <v>68.6006</v>
+    <v>534.15</v>
+    <v>535.92999999999995</v>
+    <v>536.26</v>
     <v>152053000</v>
     <v>SNPS</v>
     <v>SYNOPSYS, INC. (XNAS:SNPS)</v>
-    <v>876617</v>
-    <v>835424</v>
+    <v>569163</v>
+    <v>855693</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2155,9 +2159,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14158,7 +14162,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>83014860000</v>
+        <v>81489764290</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -14186,7 +14190,7 @@
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>52140341674.845192</v>
+        <v>51799887754.316208</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>205</v>
@@ -14238,14 +14242,14 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>42706881256.418701</v>
+        <v>42408854171.72155</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>5.0249999999999991E-3</v>
+        <v>3.3319999999999999E-3</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>213</v>
@@ -14290,14 +14294,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>43852284256.418701</v>
+        <v>43554257171.72155</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>545.96</v>
+        <v>535.92999999999995</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>220</v>
@@ -14317,7 +14321,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>14.249031925849639</v>
+        <v>13.987257859594919</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>222</v>
@@ -14345,14 +14349,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>9.6497901245985035E-2</v>
+        <v>9.6967820040099822E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>288.94839438248368</v>
+        <v>286.98465522804889</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>226</v>
@@ -14372,14 +14376,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>48.208397212543552</v>
+        <v>47.322743490127756</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="63">
         <f>F15/A3</f>
-        <v>2.2188798487403339E-2</v>
+        <v>2.2604065873166854E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>229</v>
@@ -14406,7 +14410,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-0.47075171371074132</v>
+        <v>-0.46451093383828312</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>232</v>
@@ -14733,7 +14737,7 @@
       </c>
       <c r="O14" s="91">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -14885,7 +14889,7 @@
       </c>
       <c r="O17" s="101">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
@@ -14968,7 +14972,7 @@
       </c>
       <c r="O20" s="107">
         <f>A3</f>
-        <v>83014860000</v>
+        <v>81489764290</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
@@ -14998,7 +15002,7 @@
       </c>
       <c r="O21" s="107">
         <f>O19+O20</f>
-        <v>83704044000</v>
+        <v>82178948290</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -15026,7 +15030,7 @@
       </c>
       <c r="O22" s="109">
         <f>(O19/O21)</f>
-        <v>8.2335806857790524E-3</v>
+        <v>8.386381358495237E-3</v>
       </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
@@ -15051,7 +15055,7 @@
       </c>
       <c r="O23" s="110">
         <f>O20/O21</f>
-        <v>0.99176641931422094</v>
+        <v>0.99161361864150477</v>
       </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
@@ -15095,7 +15099,7 @@
       <c r="M25" s="74"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.6497901245985035E-2</v>
+        <v>9.6967820040099822E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="44"/>
